--- a/Data/mappings/oLCA/oLCA_mapping.xlsx
+++ b/Data/mappings/oLCA/oLCA_mapping.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\oLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75586091-3C16-4816-99A9-346577EBD593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480ABD4-D175-42D2-99C4-E2DE99CB4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14105" uniqueCount="8403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14110" uniqueCount="8403">
   <si>
     <t>Theophylline</t>
   </si>
@@ -25656,9 +25656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8022"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -47897,6 +47895,9 @@
       <c r="A3157" s="1" t="s">
         <v>5461</v>
       </c>
+      <c r="B3157" s="1" t="s">
+        <v>4988</v>
+      </c>
     </row>
     <row r="3158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3158" s="1" t="s">
@@ -47948,6 +47949,9 @@
       <c r="A3166" s="1" t="s">
         <v>6541</v>
       </c>
+      <c r="B3166" s="1" t="s">
+        <v>4988</v>
+      </c>
     </row>
     <row r="3167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3167" s="1" t="s">
@@ -72234,6 +72238,9 @@
       <c r="A6510" s="1" t="s">
         <v>7418</v>
       </c>
+      <c r="B6510" s="1" t="s">
+        <v>5931</v>
+      </c>
     </row>
     <row r="6511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6511" s="1" t="s">
@@ -74378,6 +74385,9 @@
       <c r="A6781" s="1" t="s">
         <v>7437</v>
       </c>
+      <c r="B6781" s="1" t="s">
+        <v>4763</v>
+      </c>
     </row>
     <row r="6782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6782" s="1" t="s">
@@ -80583,6 +80593,9 @@
     <row r="7565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7565" s="1" t="s">
         <v>7718</v>
+      </c>
+      <c r="B7565" s="1" t="s">
+        <v>4763</v>
       </c>
     </row>
     <row r="7566" spans="1:2" x14ac:dyDescent="0.3">

--- a/Data/mappings/oLCA/oLCA_mapping.xlsx
+++ b/Data/mappings/oLCA/oLCA_mapping.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\oLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480ABD4-D175-42D2-99C4-E2DE99CB4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1A94A-DE8D-43B3-B1FB-5E8CA65C8DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14110" uniqueCount="8403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14120" uniqueCount="8404">
   <si>
     <t>Theophylline</t>
   </si>
@@ -25241,6 +25241,9 @@
   </si>
   <si>
     <t>Water, well, in ground, ZW</t>
+  </si>
+  <si>
+    <t>Transformation, from secondary vegetation</t>
   </si>
 </sst>
 </file>
@@ -25656,7 +25659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8022"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4453" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4481" sqref="B4481"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -41428,6 +41433,9 @@
       <c r="A2253" s="1" t="s">
         <v>6369</v>
       </c>
+      <c r="B2253" s="1" t="s">
+        <v>5759</v>
+      </c>
     </row>
     <row r="2254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2254" s="1" t="s">
@@ -41824,6 +41832,9 @@
       <c r="A2307" s="1" t="s">
         <v>4641</v>
       </c>
+      <c r="B2307" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2308" s="1" t="s">
@@ -50089,7 +50100,7 @@
         <v>4178</v>
       </c>
       <c r="B3490" s="1" t="s">
-        <v>2676</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="3491" spans="1:2" x14ac:dyDescent="0.3">
@@ -52218,6 +52229,9 @@
       <c r="A3784" s="1" t="s">
         <v>6720</v>
       </c>
+      <c r="B3784" s="1" t="s">
+        <v>2456</v>
+      </c>
     </row>
     <row r="3785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3785" s="1" t="s">
@@ -52231,6 +52245,9 @@
       <c r="A3786" s="1" t="s">
         <v>6721</v>
       </c>
+      <c r="B3786" s="1" t="s">
+        <v>8098</v>
+      </c>
     </row>
     <row r="3787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3787" s="1" t="s">
@@ -55408,6 +55425,9 @@
       <c r="A4215" s="1" t="s">
         <v>6777</v>
       </c>
+      <c r="B4215" s="1" t="s">
+        <v>2962</v>
+      </c>
     </row>
     <row r="4216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4216" s="1" t="s">
@@ -57317,11 +57337,17 @@
       <c r="A4472" s="1" t="s">
         <v>1939</v>
       </c>
+      <c r="B4472" s="1" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="4473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4473" s="1" t="s">
         <v>6902</v>
       </c>
+      <c r="B4473" s="1" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="4474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4474" s="1" t="s">
@@ -61450,16 +61476,25 @@
       <c r="A5061" s="1" t="s">
         <v>6996</v>
       </c>
+      <c r="B5061" s="1" t="s">
+        <v>2951</v>
+      </c>
     </row>
     <row r="5062" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5062" s="1" t="s">
         <v>6997</v>
       </c>
+      <c r="B5062" s="1" t="s">
+        <v>2951</v>
+      </c>
     </row>
     <row r="5063" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5063" s="1" t="s">
         <v>6998</v>
       </c>
+      <c r="B5063" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5064" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5064" s="1" t="s">
@@ -65745,7 +65780,7 @@
         <v>7213</v>
       </c>
       <c r="B5663" s="1" t="s">
-        <v>8141</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="5664" spans="1:2" x14ac:dyDescent="0.3">

--- a/Data/mappings/oLCA/oLCA_mapping.xlsx
+++ b/Data/mappings/oLCA/oLCA_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\oLCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B1A94A-DE8D-43B3-B1FB-5E8CA65C8DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D9B30-9B0F-40A9-8756-13C5BE8FEBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14120" uniqueCount="8404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14120" uniqueCount="8398">
   <si>
     <t>Theophylline</t>
   </si>
@@ -24476,24 +24476,6 @@
   </si>
   <si>
     <t>Transformation, to permanent crops</t>
-  </si>
-  <si>
-    <t>Water, unspecified natural origin,BA</t>
-  </si>
-  <si>
-    <t>Water, unspecified natural origin, WT</t>
-  </si>
-  <si>
-    <t>Water, unspecified natural origin, lC</t>
-  </si>
-  <si>
-    <t>Water, unspecified natural origin. NI</t>
-  </si>
-  <si>
-    <t>Water, unspecified natural origin. NO</t>
-  </si>
-  <si>
-    <t>Water, unspecified natural origin TR</t>
   </si>
   <si>
     <t>Water, well, in ground, AD</t>
@@ -25659,8 +25641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4453" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4481" sqref="B4481"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40122,7 +40104,7 @@
         <v>5233</v>
       </c>
       <c r="B2068" s="1" t="s">
-        <v>5233</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.3">
@@ -65780,7 +65762,7 @@
         <v>7213</v>
       </c>
       <c r="B5663" s="1" t="s">
-        <v>8403</v>
+        <v>8397</v>
       </c>
     </row>
     <row r="5664" spans="1:2" x14ac:dyDescent="0.3">
@@ -76627,7 +76609,7 @@
         <v>7464</v>
       </c>
       <c r="B7059" s="1" t="s">
-        <v>8148</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="7060" spans="1:2" x14ac:dyDescent="0.3">
@@ -77019,7 +77001,7 @@
         <v>7513</v>
       </c>
       <c r="B7108" s="1" t="s">
-        <v>8149</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="7109" spans="1:2" x14ac:dyDescent="0.3">
@@ -77496,7 +77478,7 @@
         <v>7573</v>
       </c>
       <c r="B7168" s="1" t="s">
-        <v>8150</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="7169" spans="1:2" x14ac:dyDescent="0.3">
@@ -77784,7 +77766,7 @@
         <v>7609</v>
       </c>
       <c r="B7204" s="1" t="s">
-        <v>8151</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="7205" spans="1:2" x14ac:dyDescent="0.3">
@@ -77800,7 +77782,7 @@
         <v>7611</v>
       </c>
       <c r="B7206" s="1" t="s">
-        <v>8152</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="7207" spans="1:2" x14ac:dyDescent="0.3">
@@ -78320,7 +78302,7 @@
         <v>7676</v>
       </c>
       <c r="B7271" s="1" t="s">
-        <v>8153</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="7272" spans="1:2" x14ac:dyDescent="0.3">
@@ -80654,7 +80636,7 @@
         <v>7721</v>
       </c>
       <c r="B7568" s="1" t="s">
-        <v>8154</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="7569" spans="1:2" x14ac:dyDescent="0.3">
@@ -80662,7 +80644,7 @@
         <v>7722</v>
       </c>
       <c r="B7569" s="1" t="s">
-        <v>8155</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="7570" spans="1:2" x14ac:dyDescent="0.3">
@@ -80670,7 +80652,7 @@
         <v>7723</v>
       </c>
       <c r="B7570" s="1" t="s">
-        <v>8156</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="7571" spans="1:2" x14ac:dyDescent="0.3">
@@ -80678,7 +80660,7 @@
         <v>7724</v>
       </c>
       <c r="B7571" s="1" t="s">
-        <v>8157</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="7572" spans="1:2" x14ac:dyDescent="0.3">
@@ -80686,7 +80668,7 @@
         <v>7725</v>
       </c>
       <c r="B7572" s="1" t="s">
-        <v>8158</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="7573" spans="1:2" x14ac:dyDescent="0.3">
@@ -80694,7 +80676,7 @@
         <v>7726</v>
       </c>
       <c r="B7573" s="1" t="s">
-        <v>8159</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="7574" spans="1:2" x14ac:dyDescent="0.3">
@@ -80702,7 +80684,7 @@
         <v>7727</v>
       </c>
       <c r="B7574" s="1" t="s">
-        <v>8160</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="7575" spans="1:2" x14ac:dyDescent="0.3">
@@ -80710,7 +80692,7 @@
         <v>7728</v>
       </c>
       <c r="B7575" s="1" t="s">
-        <v>8161</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="7576" spans="1:2" x14ac:dyDescent="0.3">
@@ -80718,7 +80700,7 @@
         <v>7729</v>
       </c>
       <c r="B7576" s="1" t="s">
-        <v>8162</v>
+        <v>8156</v>
       </c>
     </row>
     <row r="7577" spans="1:2" x14ac:dyDescent="0.3">
@@ -80726,7 +80708,7 @@
         <v>7730</v>
       </c>
       <c r="B7577" s="1" t="s">
-        <v>8163</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="7578" spans="1:2" x14ac:dyDescent="0.3">
@@ -80734,7 +80716,7 @@
         <v>7731</v>
       </c>
       <c r="B7578" s="1" t="s">
-        <v>8164</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="7579" spans="1:2" x14ac:dyDescent="0.3">
@@ -80742,7 +80724,7 @@
         <v>7732</v>
       </c>
       <c r="B7579" s="1" t="s">
-        <v>8165</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="7580" spans="1:2" x14ac:dyDescent="0.3">
@@ -80750,7 +80732,7 @@
         <v>7733</v>
       </c>
       <c r="B7580" s="1" t="s">
-        <v>8166</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="7581" spans="1:2" x14ac:dyDescent="0.3">
@@ -80758,7 +80740,7 @@
         <v>7734</v>
       </c>
       <c r="B7581" s="1" t="s">
-        <v>8167</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="7582" spans="1:2" x14ac:dyDescent="0.3">
@@ -80766,7 +80748,7 @@
         <v>7735</v>
       </c>
       <c r="B7582" s="1" t="s">
-        <v>8168</v>
+        <v>8162</v>
       </c>
     </row>
     <row r="7583" spans="1:2" x14ac:dyDescent="0.3">
@@ -80774,7 +80756,7 @@
         <v>7736</v>
       </c>
       <c r="B7583" s="1" t="s">
-        <v>8169</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="7584" spans="1:2" x14ac:dyDescent="0.3">
@@ -80782,7 +80764,7 @@
         <v>7737</v>
       </c>
       <c r="B7584" s="1" t="s">
-        <v>8170</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="7585" spans="1:2" x14ac:dyDescent="0.3">
@@ -80790,7 +80772,7 @@
         <v>7738</v>
       </c>
       <c r="B7585" s="1" t="s">
-        <v>8171</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="7586" spans="1:2" x14ac:dyDescent="0.3">
@@ -80798,7 +80780,7 @@
         <v>7739</v>
       </c>
       <c r="B7586" s="1" t="s">
-        <v>8172</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="7587" spans="1:2" x14ac:dyDescent="0.3">
@@ -80806,7 +80788,7 @@
         <v>7740</v>
       </c>
       <c r="B7587" s="1" t="s">
-        <v>8173</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="7588" spans="1:2" x14ac:dyDescent="0.3">
@@ -80814,7 +80796,7 @@
         <v>7741</v>
       </c>
       <c r="B7588" s="1" t="s">
-        <v>8174</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="7589" spans="1:2" x14ac:dyDescent="0.3">
@@ -80822,7 +80804,7 @@
         <v>7742</v>
       </c>
       <c r="B7589" s="1" t="s">
-        <v>8175</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="7590" spans="1:2" x14ac:dyDescent="0.3">
@@ -80830,7 +80812,7 @@
         <v>7743</v>
       </c>
       <c r="B7590" s="1" t="s">
-        <v>8176</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="7591" spans="1:2" x14ac:dyDescent="0.3">
@@ -80838,7 +80820,7 @@
         <v>7744</v>
       </c>
       <c r="B7591" s="1" t="s">
-        <v>8177</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="7592" spans="1:2" x14ac:dyDescent="0.3">
@@ -80846,7 +80828,7 @@
         <v>7745</v>
       </c>
       <c r="B7592" s="1" t="s">
-        <v>8178</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="7593" spans="1:2" x14ac:dyDescent="0.3">
@@ -80854,7 +80836,7 @@
         <v>7746</v>
       </c>
       <c r="B7593" s="1" t="s">
-        <v>8179</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="7594" spans="1:2" x14ac:dyDescent="0.3">
@@ -80862,7 +80844,7 @@
         <v>7747</v>
       </c>
       <c r="B7594" s="1" t="s">
-        <v>8180</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="7595" spans="1:2" x14ac:dyDescent="0.3">
@@ -80870,7 +80852,7 @@
         <v>7748</v>
       </c>
       <c r="B7595" s="1" t="s">
-        <v>8181</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="7596" spans="1:2" x14ac:dyDescent="0.3">
@@ -80878,7 +80860,7 @@
         <v>7749</v>
       </c>
       <c r="B7596" s="1" t="s">
-        <v>8182</v>
+        <v>8176</v>
       </c>
     </row>
     <row r="7597" spans="1:2" x14ac:dyDescent="0.3">
@@ -80886,7 +80868,7 @@
         <v>7750</v>
       </c>
       <c r="B7597" s="1" t="s">
-        <v>8183</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="7598" spans="1:2" x14ac:dyDescent="0.3">
@@ -80894,7 +80876,7 @@
         <v>7751</v>
       </c>
       <c r="B7598" s="1" t="s">
-        <v>8184</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="7599" spans="1:2" x14ac:dyDescent="0.3">
@@ -80902,7 +80884,7 @@
         <v>7752</v>
       </c>
       <c r="B7599" s="1" t="s">
-        <v>8185</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="7600" spans="1:2" x14ac:dyDescent="0.3">
@@ -80910,7 +80892,7 @@
         <v>7753</v>
       </c>
       <c r="B7600" s="1" t="s">
-        <v>8186</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="7601" spans="1:2" x14ac:dyDescent="0.3">
@@ -80918,7 +80900,7 @@
         <v>7754</v>
       </c>
       <c r="B7601" s="1" t="s">
-        <v>8187</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="7602" spans="1:2" x14ac:dyDescent="0.3">
@@ -80926,7 +80908,7 @@
         <v>7755</v>
       </c>
       <c r="B7602" s="1" t="s">
-        <v>8188</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="7603" spans="1:2" x14ac:dyDescent="0.3">
@@ -80934,7 +80916,7 @@
         <v>7756</v>
       </c>
       <c r="B7603" s="1" t="s">
-        <v>8189</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="7604" spans="1:2" x14ac:dyDescent="0.3">
@@ -80942,7 +80924,7 @@
         <v>7757</v>
       </c>
       <c r="B7604" s="1" t="s">
-        <v>8190</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="7605" spans="1:2" x14ac:dyDescent="0.3">
@@ -80950,7 +80932,7 @@
         <v>7758</v>
       </c>
       <c r="B7605" s="1" t="s">
-        <v>8191</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="7606" spans="1:2" x14ac:dyDescent="0.3">
@@ -80958,7 +80940,7 @@
         <v>7759</v>
       </c>
       <c r="B7606" s="1" t="s">
-        <v>8192</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="7607" spans="1:2" x14ac:dyDescent="0.3">
@@ -80966,7 +80948,7 @@
         <v>7760</v>
       </c>
       <c r="B7607" s="1" t="s">
-        <v>8193</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="7608" spans="1:2" x14ac:dyDescent="0.3">
@@ -80974,7 +80956,7 @@
         <v>7761</v>
       </c>
       <c r="B7608" s="1" t="s">
-        <v>8194</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="7609" spans="1:2" x14ac:dyDescent="0.3">
@@ -80982,7 +80964,7 @@
         <v>7762</v>
       </c>
       <c r="B7609" s="1" t="s">
-        <v>8195</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="7610" spans="1:2" x14ac:dyDescent="0.3">
@@ -80990,7 +80972,7 @@
         <v>7763</v>
       </c>
       <c r="B7610" s="1" t="s">
-        <v>8196</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="7611" spans="1:2" x14ac:dyDescent="0.3">
@@ -80998,7 +80980,7 @@
         <v>7764</v>
       </c>
       <c r="B7611" s="1" t="s">
-        <v>8197</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="7612" spans="1:2" x14ac:dyDescent="0.3">
@@ -81006,7 +80988,7 @@
         <v>7765</v>
       </c>
       <c r="B7612" s="1" t="s">
-        <v>8198</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7613" spans="1:2" x14ac:dyDescent="0.3">
@@ -81014,7 +80996,7 @@
         <v>7766</v>
       </c>
       <c r="B7613" s="1" t="s">
-        <v>8199</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="7614" spans="1:2" x14ac:dyDescent="0.3">
@@ -81022,7 +81004,7 @@
         <v>7767</v>
       </c>
       <c r="B7614" s="1" t="s">
-        <v>8200</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="7615" spans="1:2" x14ac:dyDescent="0.3">
@@ -81030,7 +81012,7 @@
         <v>7768</v>
       </c>
       <c r="B7615" s="1" t="s">
-        <v>8201</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="7616" spans="1:2" x14ac:dyDescent="0.3">
@@ -81038,7 +81020,7 @@
         <v>7769</v>
       </c>
       <c r="B7616" s="1" t="s">
-        <v>8202</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="7617" spans="1:2" x14ac:dyDescent="0.3">
@@ -81046,7 +81028,7 @@
         <v>7770</v>
       </c>
       <c r="B7617" s="1" t="s">
-        <v>8203</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="7618" spans="1:2" x14ac:dyDescent="0.3">
@@ -81054,7 +81036,7 @@
         <v>7771</v>
       </c>
       <c r="B7618" s="1" t="s">
-        <v>8204</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="7619" spans="1:2" x14ac:dyDescent="0.3">
@@ -81062,7 +81044,7 @@
         <v>7772</v>
       </c>
       <c r="B7619" s="1" t="s">
-        <v>8205</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="7620" spans="1:2" x14ac:dyDescent="0.3">
@@ -81070,7 +81052,7 @@
         <v>7773</v>
       </c>
       <c r="B7620" s="1" t="s">
-        <v>8206</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="7621" spans="1:2" x14ac:dyDescent="0.3">
@@ -81078,7 +81060,7 @@
         <v>7774</v>
       </c>
       <c r="B7621" s="1" t="s">
-        <v>8207</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="7622" spans="1:2" x14ac:dyDescent="0.3">
@@ -81086,7 +81068,7 @@
         <v>7775</v>
       </c>
       <c r="B7622" s="1" t="s">
-        <v>8208</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="7623" spans="1:2" x14ac:dyDescent="0.3">
@@ -81094,7 +81076,7 @@
         <v>7776</v>
       </c>
       <c r="B7623" s="1" t="s">
-        <v>8209</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="7624" spans="1:2" x14ac:dyDescent="0.3">
@@ -81102,7 +81084,7 @@
         <v>7777</v>
       </c>
       <c r="B7624" s="1" t="s">
-        <v>8210</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="7625" spans="1:2" x14ac:dyDescent="0.3">
@@ -81110,7 +81092,7 @@
         <v>7778</v>
       </c>
       <c r="B7625" s="1" t="s">
-        <v>8211</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="7626" spans="1:2" x14ac:dyDescent="0.3">
@@ -81118,7 +81100,7 @@
         <v>7779</v>
       </c>
       <c r="B7626" s="1" t="s">
-        <v>8212</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="7627" spans="1:2" x14ac:dyDescent="0.3">
@@ -81126,7 +81108,7 @@
         <v>7780</v>
       </c>
       <c r="B7627" s="1" t="s">
-        <v>8213</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="7628" spans="1:2" x14ac:dyDescent="0.3">
@@ -81134,7 +81116,7 @@
         <v>7781</v>
       </c>
       <c r="B7628" s="1" t="s">
-        <v>8214</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="7629" spans="1:2" x14ac:dyDescent="0.3">
@@ -81142,7 +81124,7 @@
         <v>7782</v>
       </c>
       <c r="B7629" s="1" t="s">
-        <v>8215</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="7630" spans="1:2" x14ac:dyDescent="0.3">
@@ -81150,7 +81132,7 @@
         <v>7783</v>
       </c>
       <c r="B7630" s="1" t="s">
-        <v>8216</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="7631" spans="1:2" x14ac:dyDescent="0.3">
@@ -81158,7 +81140,7 @@
         <v>7784</v>
       </c>
       <c r="B7631" s="1" t="s">
-        <v>8217</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="7632" spans="1:2" x14ac:dyDescent="0.3">
@@ -81166,7 +81148,7 @@
         <v>7785</v>
       </c>
       <c r="B7632" s="1" t="s">
-        <v>8338</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="7633" spans="1:2" x14ac:dyDescent="0.3">
@@ -81174,7 +81156,7 @@
         <v>7786</v>
       </c>
       <c r="B7633" s="1" t="s">
-        <v>8338</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="7634" spans="1:2" x14ac:dyDescent="0.3">
@@ -81182,7 +81164,7 @@
         <v>7787</v>
       </c>
       <c r="B7634" s="1" t="s">
-        <v>8218</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="7635" spans="1:2" x14ac:dyDescent="0.3">
@@ -81190,7 +81172,7 @@
         <v>7788</v>
       </c>
       <c r="B7635" s="1" t="s">
-        <v>8219</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="7636" spans="1:2" x14ac:dyDescent="0.3">
@@ -81198,7 +81180,7 @@
         <v>7789</v>
       </c>
       <c r="B7636" s="1" t="s">
-        <v>8220</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="7637" spans="1:2" x14ac:dyDescent="0.3">
@@ -81206,7 +81188,7 @@
         <v>7790</v>
       </c>
       <c r="B7637" s="1" t="s">
-        <v>8221</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="7638" spans="1:2" x14ac:dyDescent="0.3">
@@ -81214,7 +81196,7 @@
         <v>7791</v>
       </c>
       <c r="B7638" s="1" t="s">
-        <v>8222</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="7639" spans="1:2" x14ac:dyDescent="0.3">
@@ -81222,7 +81204,7 @@
         <v>7792</v>
       </c>
       <c r="B7639" s="1" t="s">
-        <v>8223</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="7640" spans="1:2" x14ac:dyDescent="0.3">
@@ -81230,7 +81212,7 @@
         <v>7793</v>
       </c>
       <c r="B7640" s="1" t="s">
-        <v>8224</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="7641" spans="1:2" x14ac:dyDescent="0.3">
@@ -81238,7 +81220,7 @@
         <v>7794</v>
       </c>
       <c r="B7641" s="1" t="s">
-        <v>8225</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="7642" spans="1:2" x14ac:dyDescent="0.3">
@@ -81246,7 +81228,7 @@
         <v>7795</v>
       </c>
       <c r="B7642" s="1" t="s">
-        <v>8226</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="7643" spans="1:2" x14ac:dyDescent="0.3">
@@ -81254,7 +81236,7 @@
         <v>7796</v>
       </c>
       <c r="B7643" s="1" t="s">
-        <v>8227</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="7644" spans="1:2" x14ac:dyDescent="0.3">
@@ -81262,7 +81244,7 @@
         <v>7797</v>
       </c>
       <c r="B7644" s="1" t="s">
-        <v>8228</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="7645" spans="1:2" x14ac:dyDescent="0.3">
@@ -81270,7 +81252,7 @@
         <v>7798</v>
       </c>
       <c r="B7645" s="1" t="s">
-        <v>8229</v>
+        <v>8223</v>
       </c>
     </row>
     <row r="7646" spans="1:2" x14ac:dyDescent="0.3">
@@ -81278,7 +81260,7 @@
         <v>7799</v>
       </c>
       <c r="B7646" s="1" t="s">
-        <v>8230</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="7647" spans="1:2" x14ac:dyDescent="0.3">
@@ -81286,7 +81268,7 @@
         <v>7800</v>
       </c>
       <c r="B7647" s="1" t="s">
-        <v>8231</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="7648" spans="1:2" x14ac:dyDescent="0.3">
@@ -81294,7 +81276,7 @@
         <v>7801</v>
       </c>
       <c r="B7648" s="1" t="s">
-        <v>8232</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="7649" spans="1:2" x14ac:dyDescent="0.3">
@@ -81302,7 +81284,7 @@
         <v>7802</v>
       </c>
       <c r="B7649" s="1" t="s">
-        <v>8233</v>
+        <v>8227</v>
       </c>
     </row>
     <row r="7650" spans="1:2" x14ac:dyDescent="0.3">
@@ -81310,7 +81292,7 @@
         <v>7803</v>
       </c>
       <c r="B7650" s="1" t="s">
-        <v>8234</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="7651" spans="1:2" x14ac:dyDescent="0.3">
@@ -81318,7 +81300,7 @@
         <v>7804</v>
       </c>
       <c r="B7651" s="1" t="s">
-        <v>8235</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="7652" spans="1:2" x14ac:dyDescent="0.3">
@@ -81326,7 +81308,7 @@
         <v>7805</v>
       </c>
       <c r="B7652" s="1" t="s">
-        <v>8236</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="7653" spans="1:2" x14ac:dyDescent="0.3">
@@ -81334,7 +81316,7 @@
         <v>7806</v>
       </c>
       <c r="B7653" s="1" t="s">
-        <v>8237</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="7654" spans="1:2" x14ac:dyDescent="0.3">
@@ -81342,7 +81324,7 @@
         <v>7807</v>
       </c>
       <c r="B7654" s="1" t="s">
-        <v>8238</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="7655" spans="1:2" x14ac:dyDescent="0.3">
@@ -81350,7 +81332,7 @@
         <v>7808</v>
       </c>
       <c r="B7655" s="1" t="s">
-        <v>8239</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="7656" spans="1:2" x14ac:dyDescent="0.3">
@@ -81358,7 +81340,7 @@
         <v>7809</v>
       </c>
       <c r="B7656" s="1" t="s">
-        <v>8240</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="7657" spans="1:2" x14ac:dyDescent="0.3">
@@ -81366,7 +81348,7 @@
         <v>7810</v>
       </c>
       <c r="B7657" s="1" t="s">
-        <v>8241</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="7658" spans="1:2" x14ac:dyDescent="0.3">
@@ -81374,7 +81356,7 @@
         <v>7811</v>
       </c>
       <c r="B7658" s="1" t="s">
-        <v>8242</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="7659" spans="1:2" x14ac:dyDescent="0.3">
@@ -81382,7 +81364,7 @@
         <v>7812</v>
       </c>
       <c r="B7659" s="1" t="s">
-        <v>8243</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="7660" spans="1:2" x14ac:dyDescent="0.3">
@@ -81395,7 +81377,7 @@
         <v>7814</v>
       </c>
       <c r="B7661" s="1" t="s">
-        <v>8244</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="7662" spans="1:2" x14ac:dyDescent="0.3">
@@ -81403,7 +81385,7 @@
         <v>7815</v>
       </c>
       <c r="B7662" s="1" t="s">
-        <v>8245</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="7663" spans="1:2" x14ac:dyDescent="0.3">
@@ -81411,7 +81393,7 @@
         <v>7816</v>
       </c>
       <c r="B7663" s="1" t="s">
-        <v>8246</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="7664" spans="1:2" x14ac:dyDescent="0.3">
@@ -81419,7 +81401,7 @@
         <v>7817</v>
       </c>
       <c r="B7664" s="1" t="s">
-        <v>8247</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="7665" spans="1:2" x14ac:dyDescent="0.3">
@@ -81427,7 +81409,7 @@
         <v>7818</v>
       </c>
       <c r="B7665" s="1" t="s">
-        <v>8248</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="7666" spans="1:2" x14ac:dyDescent="0.3">
@@ -81435,7 +81417,7 @@
         <v>7819</v>
       </c>
       <c r="B7666" s="1" t="s">
-        <v>8249</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="7667" spans="1:2" x14ac:dyDescent="0.3">
@@ -81443,7 +81425,7 @@
         <v>7820</v>
       </c>
       <c r="B7667" s="1" t="s">
-        <v>8250</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="7668" spans="1:2" x14ac:dyDescent="0.3">
@@ -81451,7 +81433,7 @@
         <v>7821</v>
       </c>
       <c r="B7668" s="1" t="s">
-        <v>8251</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="7669" spans="1:2" x14ac:dyDescent="0.3">
@@ -81459,7 +81441,7 @@
         <v>7822</v>
       </c>
       <c r="B7669" s="1" t="s">
-        <v>8252</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="7670" spans="1:2" x14ac:dyDescent="0.3">
@@ -81467,7 +81449,7 @@
         <v>7823</v>
       </c>
       <c r="B7670" s="1" t="s">
-        <v>8253</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="7671" spans="1:2" x14ac:dyDescent="0.3">
@@ -81475,7 +81457,7 @@
         <v>7824</v>
       </c>
       <c r="B7671" s="1" t="s">
-        <v>8254</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="7672" spans="1:2" x14ac:dyDescent="0.3">
@@ -81483,7 +81465,7 @@
         <v>7825</v>
       </c>
       <c r="B7672" s="1" t="s">
-        <v>8255</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="7673" spans="1:2" x14ac:dyDescent="0.3">
@@ -81491,7 +81473,7 @@
         <v>7826</v>
       </c>
       <c r="B7673" s="1" t="s">
-        <v>8256</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="7674" spans="1:2" x14ac:dyDescent="0.3">
@@ -81499,7 +81481,7 @@
         <v>7827</v>
       </c>
       <c r="B7674" s="1" t="s">
-        <v>8257</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="7675" spans="1:2" x14ac:dyDescent="0.3">
@@ -81507,7 +81489,7 @@
         <v>7828</v>
       </c>
       <c r="B7675" s="1" t="s">
-        <v>8258</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="7676" spans="1:2" x14ac:dyDescent="0.3">
@@ -81515,7 +81497,7 @@
         <v>7829</v>
       </c>
       <c r="B7676" s="1" t="s">
-        <v>8259</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="7677" spans="1:2" x14ac:dyDescent="0.3">
@@ -81523,7 +81505,7 @@
         <v>7830</v>
       </c>
       <c r="B7677" s="1" t="s">
-        <v>8260</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="7678" spans="1:2" x14ac:dyDescent="0.3">
@@ -81531,7 +81513,7 @@
         <v>7831</v>
       </c>
       <c r="B7678" s="1" t="s">
-        <v>8261</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="7679" spans="1:2" x14ac:dyDescent="0.3">
@@ -81539,7 +81521,7 @@
         <v>7832</v>
       </c>
       <c r="B7679" s="1" t="s">
-        <v>8262</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="7680" spans="1:2" x14ac:dyDescent="0.3">
@@ -81547,7 +81529,7 @@
         <v>7833</v>
       </c>
       <c r="B7680" s="1" t="s">
-        <v>8263</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="7681" spans="1:2" x14ac:dyDescent="0.3">
@@ -81555,7 +81537,7 @@
         <v>7834</v>
       </c>
       <c r="B7681" s="1" t="s">
-        <v>8264</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="7682" spans="1:2" x14ac:dyDescent="0.3">
@@ -81563,7 +81545,7 @@
         <v>7835</v>
       </c>
       <c r="B7682" s="1" t="s">
-        <v>8265</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="7683" spans="1:2" x14ac:dyDescent="0.3">
@@ -81571,7 +81553,7 @@
         <v>7836</v>
       </c>
       <c r="B7683" s="1" t="s">
-        <v>8266</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="7684" spans="1:2" x14ac:dyDescent="0.3">
@@ -81579,7 +81561,7 @@
         <v>7837</v>
       </c>
       <c r="B7684" s="1" t="s">
-        <v>8267</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="7685" spans="1:2" x14ac:dyDescent="0.3">
@@ -81587,7 +81569,7 @@
         <v>7838</v>
       </c>
       <c r="B7685" s="1" t="s">
-        <v>8268</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="7686" spans="1:2" x14ac:dyDescent="0.3">
@@ -81595,7 +81577,7 @@
         <v>7839</v>
       </c>
       <c r="B7686" s="1" t="s">
-        <v>8269</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="7687" spans="1:2" x14ac:dyDescent="0.3">
@@ -81603,7 +81585,7 @@
         <v>7840</v>
       </c>
       <c r="B7687" s="1" t="s">
-        <v>8270</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="7688" spans="1:2" x14ac:dyDescent="0.3">
@@ -81611,7 +81593,7 @@
         <v>7841</v>
       </c>
       <c r="B7688" s="1" t="s">
-        <v>8271</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="7689" spans="1:2" x14ac:dyDescent="0.3">
@@ -81619,7 +81601,7 @@
         <v>7842</v>
       </c>
       <c r="B7689" s="1" t="s">
-        <v>8272</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="7690" spans="1:2" x14ac:dyDescent="0.3">
@@ -81627,7 +81609,7 @@
         <v>7843</v>
       </c>
       <c r="B7690" s="1" t="s">
-        <v>8273</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="7691" spans="1:2" x14ac:dyDescent="0.3">
@@ -81635,7 +81617,7 @@
         <v>7844</v>
       </c>
       <c r="B7691" s="1" t="s">
-        <v>8274</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="7692" spans="1:2" x14ac:dyDescent="0.3">
@@ -81643,7 +81625,7 @@
         <v>7845</v>
       </c>
       <c r="B7692" s="1" t="s">
-        <v>8275</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="7693" spans="1:2" x14ac:dyDescent="0.3">
@@ -81651,7 +81633,7 @@
         <v>7846</v>
       </c>
       <c r="B7693" s="1" t="s">
-        <v>8276</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="7694" spans="1:2" x14ac:dyDescent="0.3">
@@ -81659,7 +81641,7 @@
         <v>7847</v>
       </c>
       <c r="B7694" s="1" t="s">
-        <v>8277</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="7695" spans="1:2" x14ac:dyDescent="0.3">
@@ -81667,7 +81649,7 @@
         <v>7848</v>
       </c>
       <c r="B7695" s="1" t="s">
-        <v>8278</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="7696" spans="1:2" x14ac:dyDescent="0.3">
@@ -81675,7 +81657,7 @@
         <v>7849</v>
       </c>
       <c r="B7696" s="1" t="s">
-        <v>8279</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="7697" spans="1:2" x14ac:dyDescent="0.3">
@@ -81683,7 +81665,7 @@
         <v>7850</v>
       </c>
       <c r="B7697" s="1" t="s">
-        <v>8280</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="7698" spans="1:2" x14ac:dyDescent="0.3">
@@ -81691,7 +81673,7 @@
         <v>7851</v>
       </c>
       <c r="B7698" s="1" t="s">
-        <v>8281</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="7699" spans="1:2" x14ac:dyDescent="0.3">
@@ -81699,7 +81681,7 @@
         <v>7852</v>
       </c>
       <c r="B7699" s="1" t="s">
-        <v>8282</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="7700" spans="1:2" x14ac:dyDescent="0.3">
@@ -81707,7 +81689,7 @@
         <v>7853</v>
       </c>
       <c r="B7700" s="1" t="s">
-        <v>8283</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="7701" spans="1:2" x14ac:dyDescent="0.3">
@@ -81715,7 +81697,7 @@
         <v>7854</v>
       </c>
       <c r="B7701" s="1" t="s">
-        <v>8284</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="7702" spans="1:2" x14ac:dyDescent="0.3">
@@ -81723,7 +81705,7 @@
         <v>7855</v>
       </c>
       <c r="B7702" s="1" t="s">
-        <v>8285</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="7703" spans="1:2" x14ac:dyDescent="0.3">
@@ -81731,7 +81713,7 @@
         <v>7856</v>
       </c>
       <c r="B7703" s="1" t="s">
-        <v>8286</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="7704" spans="1:2" x14ac:dyDescent="0.3">
@@ -81739,7 +81721,7 @@
         <v>7857</v>
       </c>
       <c r="B7704" s="1" t="s">
-        <v>8287</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="7705" spans="1:2" x14ac:dyDescent="0.3">
@@ -81747,7 +81729,7 @@
         <v>7858</v>
       </c>
       <c r="B7705" s="1" t="s">
-        <v>8288</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="7706" spans="1:2" x14ac:dyDescent="0.3">
@@ -81755,7 +81737,7 @@
         <v>7859</v>
       </c>
       <c r="B7706" s="1" t="s">
-        <v>8289</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="7707" spans="1:2" x14ac:dyDescent="0.3">
@@ -81763,7 +81745,7 @@
         <v>7860</v>
       </c>
       <c r="B7707" s="1" t="s">
-        <v>8290</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="7708" spans="1:2" x14ac:dyDescent="0.3">
@@ -81771,7 +81753,7 @@
         <v>7861</v>
       </c>
       <c r="B7708" s="1" t="s">
-        <v>8291</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="7709" spans="1:2" x14ac:dyDescent="0.3">
@@ -81779,7 +81761,7 @@
         <v>7862</v>
       </c>
       <c r="B7709" s="1" t="s">
-        <v>8292</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="7710" spans="1:2" x14ac:dyDescent="0.3">
@@ -81787,7 +81769,7 @@
         <v>7863</v>
       </c>
       <c r="B7710" s="1" t="s">
-        <v>8293</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="7711" spans="1:2" x14ac:dyDescent="0.3">
@@ -81795,7 +81777,7 @@
         <v>7864</v>
       </c>
       <c r="B7711" s="1" t="s">
-        <v>8294</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="7712" spans="1:2" x14ac:dyDescent="0.3">
@@ -81803,7 +81785,7 @@
         <v>7865</v>
       </c>
       <c r="B7712" s="1" t="s">
-        <v>8295</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="7713" spans="1:2" x14ac:dyDescent="0.3">
@@ -81811,7 +81793,7 @@
         <v>7866</v>
       </c>
       <c r="B7713" s="1" t="s">
-        <v>8296</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="7714" spans="1:2" x14ac:dyDescent="0.3">
@@ -81819,7 +81801,7 @@
         <v>7867</v>
       </c>
       <c r="B7714" s="1" t="s">
-        <v>8297</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="7715" spans="1:2" x14ac:dyDescent="0.3">
@@ -81827,7 +81809,7 @@
         <v>7868</v>
       </c>
       <c r="B7715" s="1" t="s">
-        <v>8298</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="7716" spans="1:2" x14ac:dyDescent="0.3">
@@ -81835,7 +81817,7 @@
         <v>7869</v>
       </c>
       <c r="B7716" s="1" t="s">
-        <v>8299</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="7717" spans="1:2" x14ac:dyDescent="0.3">
@@ -81843,7 +81825,7 @@
         <v>7870</v>
       </c>
       <c r="B7717" s="1" t="s">
-        <v>8300</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="7718" spans="1:2" x14ac:dyDescent="0.3">
@@ -81851,7 +81833,7 @@
         <v>7871</v>
       </c>
       <c r="B7718" s="1" t="s">
-        <v>8301</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="7719" spans="1:2" x14ac:dyDescent="0.3">
@@ -81859,7 +81841,7 @@
         <v>7872</v>
       </c>
       <c r="B7719" s="1" t="s">
-        <v>8302</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="7720" spans="1:2" x14ac:dyDescent="0.3">
@@ -81867,7 +81849,7 @@
         <v>7873</v>
       </c>
       <c r="B7720" s="1" t="s">
-        <v>8303</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="7721" spans="1:2" x14ac:dyDescent="0.3">
@@ -81875,7 +81857,7 @@
         <v>7874</v>
       </c>
       <c r="B7721" s="1" t="s">
-        <v>8304</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="7722" spans="1:2" x14ac:dyDescent="0.3">
@@ -81883,7 +81865,7 @@
         <v>7875</v>
       </c>
       <c r="B7722" s="1" t="s">
-        <v>8305</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="7723" spans="1:2" x14ac:dyDescent="0.3">
@@ -81891,7 +81873,7 @@
         <v>7876</v>
       </c>
       <c r="B7723" s="1" t="s">
-        <v>8306</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="7724" spans="1:2" x14ac:dyDescent="0.3">
@@ -81899,7 +81881,7 @@
         <v>7877</v>
       </c>
       <c r="B7724" s="1" t="s">
-        <v>8307</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="7725" spans="1:2" x14ac:dyDescent="0.3">
@@ -81907,7 +81889,7 @@
         <v>7878</v>
       </c>
       <c r="B7725" s="1" t="s">
-        <v>8308</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="7726" spans="1:2" x14ac:dyDescent="0.3">
@@ -81915,7 +81897,7 @@
         <v>7879</v>
       </c>
       <c r="B7726" s="1" t="s">
-        <v>8309</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="7727" spans="1:2" x14ac:dyDescent="0.3">
@@ -81923,7 +81905,7 @@
         <v>7880</v>
       </c>
       <c r="B7727" s="1" t="s">
-        <v>8310</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="7728" spans="1:2" x14ac:dyDescent="0.3">
@@ -81931,7 +81913,7 @@
         <v>7881</v>
       </c>
       <c r="B7728" s="1" t="s">
-        <v>8311</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="7729" spans="1:2" x14ac:dyDescent="0.3">
@@ -81939,7 +81921,7 @@
         <v>7882</v>
       </c>
       <c r="B7729" s="1" t="s">
-        <v>8312</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="7730" spans="1:2" x14ac:dyDescent="0.3">
@@ -81947,7 +81929,7 @@
         <v>7883</v>
       </c>
       <c r="B7730" s="1" t="s">
-        <v>8313</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="7731" spans="1:2" x14ac:dyDescent="0.3">
@@ -81955,7 +81937,7 @@
         <v>7884</v>
       </c>
       <c r="B7731" s="1" t="s">
-        <v>8314</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="7732" spans="1:2" x14ac:dyDescent="0.3">
@@ -81963,7 +81945,7 @@
         <v>7885</v>
       </c>
       <c r="B7732" s="1" t="s">
-        <v>8315</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="7733" spans="1:2" x14ac:dyDescent="0.3">
@@ -81971,7 +81953,7 @@
         <v>7886</v>
       </c>
       <c r="B7733" s="1" t="s">
-        <v>8316</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="7734" spans="1:2" x14ac:dyDescent="0.3">
@@ -81979,7 +81961,7 @@
         <v>7887</v>
       </c>
       <c r="B7734" s="1" t="s">
-        <v>8317</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="7735" spans="1:2" x14ac:dyDescent="0.3">
@@ -81987,7 +81969,7 @@
         <v>7888</v>
       </c>
       <c r="B7735" s="1" t="s">
-        <v>8318</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="7736" spans="1:2" x14ac:dyDescent="0.3">
@@ -81995,7 +81977,7 @@
         <v>7889</v>
       </c>
       <c r="B7736" s="1" t="s">
-        <v>8319</v>
+        <v>8313</v>
       </c>
     </row>
     <row r="7737" spans="1:2" x14ac:dyDescent="0.3">
@@ -82003,7 +81985,7 @@
         <v>7890</v>
       </c>
       <c r="B7737" s="1" t="s">
-        <v>8320</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="7738" spans="1:2" x14ac:dyDescent="0.3">
@@ -82011,7 +81993,7 @@
         <v>7891</v>
       </c>
       <c r="B7738" s="1" t="s">
-        <v>8321</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="7739" spans="1:2" x14ac:dyDescent="0.3">
@@ -82019,7 +82001,7 @@
         <v>7892</v>
       </c>
       <c r="B7739" s="1" t="s">
-        <v>8322</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="7740" spans="1:2" x14ac:dyDescent="0.3">
@@ -82027,7 +82009,7 @@
         <v>7893</v>
       </c>
       <c r="B7740" s="1" t="s">
-        <v>8323</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="7741" spans="1:2" x14ac:dyDescent="0.3">
@@ -82035,7 +82017,7 @@
         <v>7894</v>
       </c>
       <c r="B7741" s="1" t="s">
-        <v>8324</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="7742" spans="1:2" x14ac:dyDescent="0.3">
@@ -82043,7 +82025,7 @@
         <v>7895</v>
       </c>
       <c r="B7742" s="1" t="s">
-        <v>8325</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="7743" spans="1:2" x14ac:dyDescent="0.3">
@@ -82051,7 +82033,7 @@
         <v>7896</v>
       </c>
       <c r="B7743" s="1" t="s">
-        <v>8326</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="7744" spans="1:2" x14ac:dyDescent="0.3">
@@ -82059,7 +82041,7 @@
         <v>7897</v>
       </c>
       <c r="B7744" s="1" t="s">
-        <v>8327</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="7745" spans="1:2" x14ac:dyDescent="0.3">
@@ -82067,7 +82049,7 @@
         <v>7898</v>
       </c>
       <c r="B7745" s="1" t="s">
-        <v>8328</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="7746" spans="1:2" x14ac:dyDescent="0.3">
@@ -82075,7 +82057,7 @@
         <v>7899</v>
       </c>
       <c r="B7746" s="1" t="s">
-        <v>8329</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="7747" spans="1:2" x14ac:dyDescent="0.3">
@@ -82083,7 +82065,7 @@
         <v>7900</v>
       </c>
       <c r="B7747" s="1" t="s">
-        <v>8330</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="7748" spans="1:2" x14ac:dyDescent="0.3">
@@ -82091,7 +82073,7 @@
         <v>7901</v>
       </c>
       <c r="B7748" s="1" t="s">
-        <v>8331</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="7749" spans="1:2" x14ac:dyDescent="0.3">
@@ -82099,7 +82081,7 @@
         <v>7902</v>
       </c>
       <c r="B7749" s="1" t="s">
-        <v>8332</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="7750" spans="1:2" x14ac:dyDescent="0.3">
@@ -82107,7 +82089,7 @@
         <v>7903</v>
       </c>
       <c r="B7750" s="1" t="s">
-        <v>8333</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="7751" spans="1:2" x14ac:dyDescent="0.3">
@@ -82115,7 +82097,7 @@
         <v>7904</v>
       </c>
       <c r="B7751" s="1" t="s">
-        <v>8334</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="7752" spans="1:2" x14ac:dyDescent="0.3">
@@ -82123,7 +82105,7 @@
         <v>7905</v>
       </c>
       <c r="B7752" s="1" t="s">
-        <v>8335</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="7753" spans="1:2" x14ac:dyDescent="0.3">
@@ -82131,7 +82113,7 @@
         <v>7906</v>
       </c>
       <c r="B7753" s="1" t="s">
-        <v>8336</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="7754" spans="1:2" x14ac:dyDescent="0.3">
@@ -82139,7 +82121,7 @@
         <v>7907</v>
       </c>
       <c r="B7754" s="1" t="s">
-        <v>8337</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="7755" spans="1:2" x14ac:dyDescent="0.3">
@@ -82147,7 +82129,7 @@
         <v>7908</v>
       </c>
       <c r="B7755" s="1" t="s">
-        <v>8338</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="7756" spans="1:2" x14ac:dyDescent="0.3">
@@ -82155,7 +82137,7 @@
         <v>7909</v>
       </c>
       <c r="B7756" s="1" t="s">
-        <v>8339</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="7757" spans="1:2" x14ac:dyDescent="0.3">
@@ -82163,7 +82145,7 @@
         <v>7910</v>
       </c>
       <c r="B7757" s="1" t="s">
-        <v>8340</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="7758" spans="1:2" x14ac:dyDescent="0.3">
@@ -82171,7 +82153,7 @@
         <v>7911</v>
       </c>
       <c r="B7758" s="1" t="s">
-        <v>8341</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="7759" spans="1:2" x14ac:dyDescent="0.3">
@@ -82179,7 +82161,7 @@
         <v>7912</v>
       </c>
       <c r="B7759" s="1" t="s">
-        <v>8342</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="7760" spans="1:2" x14ac:dyDescent="0.3">
@@ -82187,7 +82169,7 @@
         <v>7913</v>
       </c>
       <c r="B7760" s="1" t="s">
-        <v>8343</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="7761" spans="1:2" x14ac:dyDescent="0.3">
@@ -82195,7 +82177,7 @@
         <v>7914</v>
       </c>
       <c r="B7761" s="1" t="s">
-        <v>8344</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="7762" spans="1:2" x14ac:dyDescent="0.3">
@@ -82203,7 +82185,7 @@
         <v>7915</v>
       </c>
       <c r="B7762" s="1" t="s">
-        <v>8345</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="7763" spans="1:2" x14ac:dyDescent="0.3">
@@ -82211,7 +82193,7 @@
         <v>7916</v>
       </c>
       <c r="B7763" s="1" t="s">
-        <v>8346</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="7764" spans="1:2" x14ac:dyDescent="0.3">
@@ -82219,7 +82201,7 @@
         <v>7917</v>
       </c>
       <c r="B7764" s="1" t="s">
-        <v>8347</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="7765" spans="1:2" x14ac:dyDescent="0.3">
@@ -82227,7 +82209,7 @@
         <v>7918</v>
       </c>
       <c r="B7765" s="1" t="s">
-        <v>8348</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="7766" spans="1:2" x14ac:dyDescent="0.3">
@@ -82235,7 +82217,7 @@
         <v>7919</v>
       </c>
       <c r="B7766" s="1" t="s">
-        <v>8349</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="7767" spans="1:2" x14ac:dyDescent="0.3">
@@ -82243,7 +82225,7 @@
         <v>7920</v>
       </c>
       <c r="B7767" s="1" t="s">
-        <v>8350</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="7768" spans="1:2" x14ac:dyDescent="0.3">
@@ -82251,7 +82233,7 @@
         <v>7921</v>
       </c>
       <c r="B7768" s="1" t="s">
-        <v>8351</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="7769" spans="1:2" x14ac:dyDescent="0.3">
@@ -82259,7 +82241,7 @@
         <v>7922</v>
       </c>
       <c r="B7769" s="1" t="s">
-        <v>8352</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="7770" spans="1:2" x14ac:dyDescent="0.3">
@@ -82267,7 +82249,7 @@
         <v>7923</v>
       </c>
       <c r="B7770" s="1" t="s">
-        <v>8353</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="7771" spans="1:2" x14ac:dyDescent="0.3">
@@ -82275,7 +82257,7 @@
         <v>7924</v>
       </c>
       <c r="B7771" s="1" t="s">
-        <v>8354</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="7772" spans="1:2" x14ac:dyDescent="0.3">
@@ -82283,7 +82265,7 @@
         <v>7925</v>
       </c>
       <c r="B7772" s="1" t="s">
-        <v>8355</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="7773" spans="1:2" x14ac:dyDescent="0.3">
@@ -82291,7 +82273,7 @@
         <v>7926</v>
       </c>
       <c r="B7773" s="1" t="s">
-        <v>8356</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="7774" spans="1:2" x14ac:dyDescent="0.3">
@@ -82299,7 +82281,7 @@
         <v>7927</v>
       </c>
       <c r="B7774" s="1" t="s">
-        <v>8357</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="7775" spans="1:2" x14ac:dyDescent="0.3">
@@ -82307,7 +82289,7 @@
         <v>7928</v>
       </c>
       <c r="B7775" s="1" t="s">
-        <v>8358</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="7776" spans="1:2" x14ac:dyDescent="0.3">
@@ -82315,7 +82297,7 @@
         <v>7929</v>
       </c>
       <c r="B7776" s="1" t="s">
-        <v>8359</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="7777" spans="1:2" x14ac:dyDescent="0.3">
@@ -82323,7 +82305,7 @@
         <v>7930</v>
       </c>
       <c r="B7777" s="1" t="s">
-        <v>8360</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="7778" spans="1:2" x14ac:dyDescent="0.3">
@@ -82331,7 +82313,7 @@
         <v>7931</v>
       </c>
       <c r="B7778" s="1" t="s">
-        <v>8361</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="7779" spans="1:2" x14ac:dyDescent="0.3">
@@ -82339,7 +82321,7 @@
         <v>7932</v>
       </c>
       <c r="B7779" s="1" t="s">
-        <v>8362</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="7780" spans="1:2" x14ac:dyDescent="0.3">
@@ -82347,7 +82329,7 @@
         <v>7933</v>
       </c>
       <c r="B7780" s="1" t="s">
-        <v>8363</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="7781" spans="1:2" x14ac:dyDescent="0.3">
@@ -82355,7 +82337,7 @@
         <v>7934</v>
       </c>
       <c r="B7781" s="1" t="s">
-        <v>8364</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="7782" spans="1:2" x14ac:dyDescent="0.3">
@@ -82363,7 +82345,7 @@
         <v>7935</v>
       </c>
       <c r="B7782" s="1" t="s">
-        <v>8365</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="7783" spans="1:2" x14ac:dyDescent="0.3">
@@ -82371,7 +82353,7 @@
         <v>7936</v>
       </c>
       <c r="B7783" s="1" t="s">
-        <v>8366</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="7784" spans="1:2" x14ac:dyDescent="0.3">
@@ -82379,7 +82361,7 @@
         <v>7937</v>
       </c>
       <c r="B7784" s="1" t="s">
-        <v>8367</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="7785" spans="1:2" x14ac:dyDescent="0.3">
@@ -82387,7 +82369,7 @@
         <v>7938</v>
       </c>
       <c r="B7785" s="1" t="s">
-        <v>8368</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="7786" spans="1:2" x14ac:dyDescent="0.3">
@@ -82395,7 +82377,7 @@
         <v>7939</v>
       </c>
       <c r="B7786" s="1" t="s">
-        <v>8369</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="7787" spans="1:2" x14ac:dyDescent="0.3">
@@ -82403,7 +82385,7 @@
         <v>7940</v>
       </c>
       <c r="B7787" s="1" t="s">
-        <v>8370</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="7788" spans="1:2" x14ac:dyDescent="0.3">
@@ -82411,7 +82393,7 @@
         <v>7941</v>
       </c>
       <c r="B7788" s="1" t="s">
-        <v>8371</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="7789" spans="1:2" x14ac:dyDescent="0.3">
@@ -82419,7 +82401,7 @@
         <v>7942</v>
       </c>
       <c r="B7789" s="1" t="s">
-        <v>8372</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="7790" spans="1:2" x14ac:dyDescent="0.3">
@@ -82427,7 +82409,7 @@
         <v>7943</v>
       </c>
       <c r="B7790" s="1" t="s">
-        <v>8373</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="7791" spans="1:2" x14ac:dyDescent="0.3">
@@ -82435,7 +82417,7 @@
         <v>7944</v>
       </c>
       <c r="B7791" s="1" t="s">
-        <v>8374</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="7792" spans="1:2" x14ac:dyDescent="0.3">
@@ -82443,7 +82425,7 @@
         <v>7945</v>
       </c>
       <c r="B7792" s="1" t="s">
-        <v>8375</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="7793" spans="1:2" x14ac:dyDescent="0.3">
@@ -82451,7 +82433,7 @@
         <v>7946</v>
       </c>
       <c r="B7793" s="1" t="s">
-        <v>8376</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="7794" spans="1:2" x14ac:dyDescent="0.3">
@@ -82459,7 +82441,7 @@
         <v>7947</v>
       </c>
       <c r="B7794" s="1" t="s">
-        <v>8377</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="7795" spans="1:2" x14ac:dyDescent="0.3">
@@ -82467,7 +82449,7 @@
         <v>7948</v>
       </c>
       <c r="B7795" s="1" t="s">
-        <v>8378</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="7796" spans="1:2" x14ac:dyDescent="0.3">
@@ -82475,7 +82457,7 @@
         <v>7949</v>
       </c>
       <c r="B7796" s="1" t="s">
-        <v>8379</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="7797" spans="1:2" x14ac:dyDescent="0.3">
@@ -82483,7 +82465,7 @@
         <v>7950</v>
       </c>
       <c r="B7797" s="1" t="s">
-        <v>8380</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="7798" spans="1:2" x14ac:dyDescent="0.3">
@@ -82491,7 +82473,7 @@
         <v>7951</v>
       </c>
       <c r="B7798" s="1" t="s">
-        <v>8381</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="7799" spans="1:2" x14ac:dyDescent="0.3">
@@ -82499,7 +82481,7 @@
         <v>7952</v>
       </c>
       <c r="B7799" s="1" t="s">
-        <v>8382</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="7800" spans="1:2" x14ac:dyDescent="0.3">
@@ -82507,7 +82489,7 @@
         <v>7953</v>
       </c>
       <c r="B7800" s="1" t="s">
-        <v>8383</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="7801" spans="1:2" x14ac:dyDescent="0.3">
@@ -82515,7 +82497,7 @@
         <v>7954</v>
       </c>
       <c r="B7801" s="1" t="s">
-        <v>8384</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="7802" spans="1:2" x14ac:dyDescent="0.3">
@@ -82523,7 +82505,7 @@
         <v>7955</v>
       </c>
       <c r="B7802" s="1" t="s">
-        <v>8385</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="7803" spans="1:2" x14ac:dyDescent="0.3">
@@ -82531,7 +82513,7 @@
         <v>7956</v>
       </c>
       <c r="B7803" s="1" t="s">
-        <v>8386</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="7804" spans="1:2" x14ac:dyDescent="0.3">
@@ -82539,7 +82521,7 @@
         <v>7957</v>
       </c>
       <c r="B7804" s="1" t="s">
-        <v>8387</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="7805" spans="1:2" x14ac:dyDescent="0.3">
@@ -82547,7 +82529,7 @@
         <v>7958</v>
       </c>
       <c r="B7805" s="1" t="s">
-        <v>8388</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="7806" spans="1:2" x14ac:dyDescent="0.3">
@@ -82555,7 +82537,7 @@
         <v>7959</v>
       </c>
       <c r="B7806" s="1" t="s">
-        <v>8389</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="7807" spans="1:2" x14ac:dyDescent="0.3">
@@ -82563,7 +82545,7 @@
         <v>7960</v>
       </c>
       <c r="B7807" s="1" t="s">
-        <v>8390</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="7808" spans="1:2" x14ac:dyDescent="0.3">
@@ -82571,7 +82553,7 @@
         <v>7961</v>
       </c>
       <c r="B7808" s="1" t="s">
-        <v>8391</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="7809" spans="1:2" x14ac:dyDescent="0.3">
@@ -82579,7 +82561,7 @@
         <v>7962</v>
       </c>
       <c r="B7809" s="1" t="s">
-        <v>8392</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="7810" spans="1:2" x14ac:dyDescent="0.3">
@@ -82587,7 +82569,7 @@
         <v>7963</v>
       </c>
       <c r="B7810" s="1" t="s">
-        <v>8393</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="7811" spans="1:2" x14ac:dyDescent="0.3">
@@ -82595,7 +82577,7 @@
         <v>7964</v>
       </c>
       <c r="B7811" s="1" t="s">
-        <v>8394</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="7812" spans="1:2" x14ac:dyDescent="0.3">
@@ -82603,7 +82585,7 @@
         <v>7965</v>
       </c>
       <c r="B7812" s="1" t="s">
-        <v>8395</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="7813" spans="1:2" x14ac:dyDescent="0.3">
@@ -82611,7 +82593,7 @@
         <v>7966</v>
       </c>
       <c r="B7813" s="1" t="s">
-        <v>8396</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="7814" spans="1:2" x14ac:dyDescent="0.3">
@@ -82619,7 +82601,7 @@
         <v>7967</v>
       </c>
       <c r="B7814" s="1" t="s">
-        <v>8397</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="7815" spans="1:2" x14ac:dyDescent="0.3">
@@ -82627,7 +82609,7 @@
         <v>7968</v>
       </c>
       <c r="B7815" s="1" t="s">
-        <v>8398</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="7816" spans="1:2" x14ac:dyDescent="0.3">
@@ -82635,7 +82617,7 @@
         <v>7969</v>
       </c>
       <c r="B7816" s="1" t="s">
-        <v>8399</v>
+        <v>8393</v>
       </c>
     </row>
     <row r="7817" spans="1:2" x14ac:dyDescent="0.3">
@@ -82643,7 +82625,7 @@
         <v>7970</v>
       </c>
       <c r="B7817" s="1" t="s">
-        <v>8400</v>
+        <v>8394</v>
       </c>
     </row>
     <row r="7818" spans="1:2" x14ac:dyDescent="0.3">
@@ -82651,7 +82633,7 @@
         <v>7971</v>
       </c>
       <c r="B7818" s="1" t="s">
-        <v>8401</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="7819" spans="1:2" x14ac:dyDescent="0.3">
@@ -82659,7 +82641,7 @@
         <v>7972</v>
       </c>
       <c r="B7819" s="1" t="s">
-        <v>8402</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="7820" spans="1:2" x14ac:dyDescent="0.3">

--- a/Data/mappings/oLCA/oLCA_mapping.xlsx
+++ b/Data/mappings/oLCA/oLCA_mapping.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings\oLCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\IW_Reborn\Data\mappings_2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D9B30-9B0F-40A9-8756-13C5BE8FEBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD5EC87-E276-4D5A-90CB-8393E8A36E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8087</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14120" uniqueCount="8398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14271" uniqueCount="8470">
   <si>
     <t>Theophylline</t>
   </si>
@@ -24175,24 +24178,15 @@
     <t>Curium-alpha</t>
   </si>
   <si>
-    <t>1,1,3,3,4,4,6,6,7,7,9,9,10,10,12,12,13,13,15-eicosafluoro-2,5,8,11,14-pentaox*</t>
-  </si>
-  <si>
     <t>1,1,3,3,4,4,6,6,7,7,9,9,10,10,12,12-Hexadecafluoro-2,5,8,11-tetraoxadodecane, HG-03</t>
   </si>
   <si>
     <t>1,1,3,3,5,5,7,7,8,8,10,10-Dodecafluoro-2,4,6,9-tetraoxadecane, HG-21</t>
   </si>
   <si>
-    <t>1,1,3,3,5,5,7,7,9,9-Decafluoro-2,4,6,8-tetraoxanonane, HG-30</t>
-  </si>
-  <si>
     <t>2,5,8,11-Tetraoxadodecane, 3,3,4,4,6,6,7,7,9,9,10,10-dodecafluoro, HG'-03</t>
   </si>
   <si>
-    <t>2-ethoxy-3,3,4,4,5-pentafluorotetrahydro-2,5-bis[1,2,2,2-tetrafluoro-1-(trifluo*</t>
-  </si>
-  <si>
     <t>1,1'-oxybis[2-(difluoromethoxy)-1,1,2,2-tetrafluoroethane</t>
   </si>
   <si>
@@ -24355,9 +24349,6 @@
     <t>Perfluoro-2-methyl-3-pentanone</t>
   </si>
   <si>
-    <t>Perfluorodecalin</t>
-  </si>
-  <si>
     <t>Perfluoro-n-heptane, PFC-6-1-16</t>
   </si>
   <si>
@@ -25226,6 +25217,234 @@
   </si>
   <si>
     <t>Transformation, from secondary vegetation</t>
+  </si>
+  <si>
+    <t>1,1,2,2-tetrachloro-1-fluoroethane - HCFC-121</t>
+  </si>
+  <si>
+    <t>(1r,2s)-1,2-dichloro-1,2,3,3,4,4-hexafluorocyclobutane - Z-R316c</t>
+  </si>
+  <si>
+    <t>(1s,2s)-1,2-dichloro-1,2,3,3,4,4-hexafluorocyclobutane - E-R316c</t>
+  </si>
+  <si>
+    <t>(4s,5s)-1,1,2,2,3,3,4,5-octafluorocyclopentane</t>
+  </si>
+  <si>
+    <t>(E)-1,1,1,4,4,4-Hexafluorobut-2-ene, (E)-HFC-1336</t>
+  </si>
+  <si>
+    <t>(E)-1,2-dichloro-1,2-difluoroethene - CFC 1112</t>
+  </si>
+  <si>
+    <t>(E)-1,3,4,4,4-pentafluoro-3-(trifluoromethyl)but-1-ene - (E) HFO-1438ezy</t>
+  </si>
+  <si>
+    <t>(E)-1-chloro-2-fluoroethene</t>
+  </si>
+  <si>
+    <t>(E)-hex-2-en-1-ol</t>
+  </si>
+  <si>
+    <t>(Z) 1-chloro-3,3,3-trifluoroprop-1-ene - (Z) HCFO-1233zd</t>
+  </si>
+  <si>
+    <t>(Z)-hex-2-en-1-ol</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,3,3,4,4-nonafluoro-4-methoxybutane - HFE-449s1</t>
+  </si>
+  <si>
+    <t>1,1,1,2,2,3,4,5,5,5-decafluoro-3-methoxy-4-(trifluoromethyl)pentane - HFE-7300</t>
+  </si>
+  <si>
+    <t>1,1,1-trichloro-2,2,2-trifluoroethane - CFC-113a</t>
+  </si>
+  <si>
+    <t>1,1,1-trifluorobutan-2-one</t>
+  </si>
+  <si>
+    <t>1,1,1-trifluoropropan-2-one</t>
+  </si>
+  <si>
+    <t>1,1,2,2,3,3,4-heptafluorocyclopentane</t>
+  </si>
+  <si>
+    <t>1,1,2,2,3,3-hexafluorocyclopentane</t>
+  </si>
+  <si>
+    <t>1,1-dichloro-2,2-difluoroethane - HCFC-132a</t>
+  </si>
+  <si>
+    <t>1,1-dichloro-2,2-difluoroethene - CFC 1112a</t>
+  </si>
+  <si>
+    <t>1,1-dichlorotetrafluoroethane - CFC-114a</t>
+  </si>
+  <si>
+    <t>1,2-dichloro-1,2-difluoroethane - HCFC-132</t>
+  </si>
+  <si>
+    <t>1,2-dichloro-1-fluoroethane - HCFC-141</t>
+  </si>
+  <si>
+    <t>1,3,3,4,4-pentafluorocyclobutene</t>
+  </si>
+  <si>
+    <t>1-chloro-1,1,2,2-tetrafluoroethane - HCFC-124a</t>
+  </si>
+  <si>
+    <t>2,2,3,3,4,4,5,5-octafluorooxolane</t>
+  </si>
+  <si>
+    <t>2-bromopropane</t>
+  </si>
+  <si>
+    <t>2-chloropropane</t>
+  </si>
+  <si>
+    <t>2-methylpentan-3-one</t>
+  </si>
+  <si>
+    <t>3,3,3-trifluoro-2-(trifluoromethyl)prop-1-ene</t>
+  </si>
+  <si>
+    <t>3,3,4,4,5,5,5-heptafluoropent-1-ene - HFO-1447fz</t>
+  </si>
+  <si>
+    <t>3,3,4,4-tetrafluorocyclobutene</t>
+  </si>
+  <si>
+    <t>4-ethoxy-1,1,1,2,2,3,3,4,5,6,6,6-dodecafluoro-5-(trifluoromethyl)hexane - HFE-7500</t>
+  </si>
+  <si>
+    <t>Allyl ether</t>
+  </si>
+  <si>
+    <t>Allyl ethyl ether</t>
+  </si>
+  <si>
+    <t>Decamethylcyclopentasiloxane</t>
+  </si>
+  <si>
+    <t>Decamethyltetrasiloxane</t>
+  </si>
+  <si>
+    <t>Dodecamethylcyclohexasiloxane</t>
+  </si>
+  <si>
+    <t>Dodecamethylpentasiloxane</t>
+  </si>
+  <si>
+    <t>Ethenyl 2,2,2-trifluoroacetate</t>
+  </si>
+  <si>
+    <t>Ethyl methyl ether</t>
+  </si>
+  <si>
+    <t>Heptacosafluorotributylamine - PFTBA</t>
+  </si>
+  <si>
+    <t>Heptafluoroisobutyronitrile</t>
+  </si>
+  <si>
+    <t>Hexafluorocyclobutene</t>
+  </si>
+  <si>
+    <t>Hexamethylcyclotrisiloxane</t>
+  </si>
+  <si>
+    <t>Hexamethyldisiloxane</t>
+  </si>
+  <si>
+    <t>Methyl-perfluoro-heptene-ethers</t>
+  </si>
+  <si>
+    <t>Octamethyltrisiloxane</t>
+  </si>
+  <si>
+    <t>Pentadecafluorotriethylamine</t>
+  </si>
+  <si>
+    <t>Perfluorotripentylamine</t>
+  </si>
+  <si>
+    <t>Perfluorotripropylamine - PTPA</t>
+  </si>
+  <si>
+    <t>Prop-2-enyl 2,2,2-trifluoroacetate</t>
+  </si>
+  <si>
+    <t>Tetrachloro-1,2-difluoroethane - CFC-112</t>
+  </si>
+  <si>
+    <t>Tetrachloro-1,1-difluoroethane - CFC-112a</t>
+  </si>
+  <si>
+    <t>Trifluoroethylene - HFO-1123</t>
+  </si>
+  <si>
+    <t>1,1,3,3,4,4,6,6,7,7,9,9,10,10,12,12,13,13,15-eicosafluoro-2,5,8,11,14-pentaoxapentadecane (HG-04)</t>
+  </si>
+  <si>
+    <t>1,1,3,3,5,5,7,7,9,9-Decafluoro-2,4,6,8-tetraoxanonane, HFE-43-10pccc124</t>
+  </si>
+  <si>
+    <t>1,3,3,4,4,5,5-heptafluorocyclopentene</t>
+  </si>
+  <si>
+    <t>2,2,3,3,4,4,4-heptafluorobutan-1-ol</t>
+  </si>
+  <si>
+    <t>2-ethoxy-3,3,4,4,5-pentafluorotetrahydro-2,5-bis[1,2,2,2-tetrafluoro-1-(trifluoromethyl)ethyl]-furan</t>
+  </si>
+  <si>
+    <t>Butane, 1,1,1,2,2,3,3,4,4-nonafluoro-4-methoxy-, n-HFE-7100</t>
+  </si>
+  <si>
+    <t>Ethane, 1,1'-oxybis[2-(difluoromethoxy)-1,1,2,2-tetrafluoro-, HG-02</t>
+  </si>
+  <si>
+    <t>Ethane, 1,1,1-trifluoro-2-methoxy-, HFE-263mf</t>
+  </si>
+  <si>
+    <t>Ethane, 1-(2,2-difluoroethoxy)-1,1,2,2,2-pentafluoro-, HFE-347mcf2</t>
+  </si>
+  <si>
+    <t>Ethane, 1-(2,2-difluoroethoxy)-1,1,2,2-tetrafluoro-, HFE-356pcf2</t>
+  </si>
+  <si>
+    <t>Ethane,1,1,1,2-tetrafluoro-2-(trifluoromethoxy)-, HFE-227EA</t>
+  </si>
+  <si>
+    <t>Ethene, fluoro-, HFC-1141</t>
+  </si>
+  <si>
+    <t>Ether, 1,2,2-trifluoroethyl trifluoromethyl, HFE-236fa</t>
+  </si>
+  <si>
+    <t>Ether, nonafluorobutane ethyl-, HFE569sf2 (n-HFE-7200)</t>
+  </si>
+  <si>
+    <t>Ethyl 2,2,2-trifluoroacetate</t>
+  </si>
+  <si>
+    <t>HFE-43-10pccc124 (H-Galden1040x, HG-11)</t>
+  </si>
+  <si>
+    <t>Perfluorodecalin, PFC-9-1-18</t>
+  </si>
+  <si>
+    <t>Perfluoroethylene, PFC-1114</t>
+  </si>
+  <si>
+    <t>Propane, 2-(difluoromethoxymethyl)-1,1,1,2,3,3,3-heptafluoro-, i-HFE-7100</t>
+  </si>
+  <si>
+    <t>Propane, 2-(ethoxydifluoromethyl)-1,1,1,2,3,3,3-heptafluoro-, i-HFE-7200</t>
+  </si>
+  <si>
+    <t>Vinylidene fluoride, HFC-1132a</t>
   </si>
 </sst>
 </file>
@@ -25319,9 +25538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -25359,9 +25578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -25394,26 +25613,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -25446,26 +25648,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25639,10 +25824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8022"/>
+  <dimension ref="A1:B8091"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5765" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5783" sqref="A5783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42932,7 +43117,7 @@
         <v>5614</v>
       </c>
       <c r="B2471" s="1" t="s">
-        <v>8047</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="2472" spans="1:2" x14ac:dyDescent="0.3">
@@ -42940,7 +43125,7 @@
         <v>5609</v>
       </c>
       <c r="B2472" s="1" t="s">
-        <v>8048</v>
+        <v>8047</v>
       </c>
     </row>
     <row r="2473" spans="1:2" x14ac:dyDescent="0.3">
@@ -42948,7 +43133,7 @@
         <v>5806</v>
       </c>
       <c r="B2473" s="1" t="s">
-        <v>8049</v>
+        <v>8048</v>
       </c>
     </row>
     <row r="2474" spans="1:2" x14ac:dyDescent="0.3">
@@ -42956,7 +43141,7 @@
         <v>4475</v>
       </c>
       <c r="B2474" s="1" t="s">
-        <v>8050</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="2475" spans="1:2" x14ac:dyDescent="0.3">
@@ -42969,7 +43154,7 @@
         <v>4189</v>
       </c>
       <c r="B2476" s="1" t="s">
-        <v>8051</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="2477" spans="1:2" x14ac:dyDescent="0.3">
@@ -44883,7 +45068,7 @@
         <v>5752</v>
       </c>
       <c r="B2737" s="1" t="s">
-        <v>8052</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="2738" spans="1:2" x14ac:dyDescent="0.3">
@@ -45309,7 +45494,7 @@
         <v>5787</v>
       </c>
       <c r="B2800" s="1" t="s">
-        <v>8053</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="2801" spans="1:2" x14ac:dyDescent="0.3">
@@ -45357,7 +45542,7 @@
         <v>5640</v>
       </c>
       <c r="B2806" s="1" t="s">
-        <v>8054</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="2807" spans="1:2" x14ac:dyDescent="0.3">
@@ -45372,11 +45557,17 @@
       <c r="A2808" s="1" t="s">
         <v>5607</v>
       </c>
+      <c r="B2808" s="1" t="s">
+        <v>8446</v>
+      </c>
     </row>
     <row r="2809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2809" s="1" t="s">
         <v>5339</v>
       </c>
+      <c r="B2809" s="1" t="s">
+        <v>8394</v>
+      </c>
     </row>
     <row r="2810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2810" s="1" t="s">
@@ -45391,7 +45582,7 @@
         <v>4570</v>
       </c>
       <c r="B2811" s="1" t="s">
-        <v>8055</v>
+        <v>8052</v>
       </c>
     </row>
     <row r="2812" spans="1:2" x14ac:dyDescent="0.3">
@@ -45399,7 +45590,7 @@
         <v>3400</v>
       </c>
       <c r="B2812" s="1" t="s">
-        <v>8056</v>
+        <v>8053</v>
       </c>
     </row>
     <row r="2813" spans="1:2" x14ac:dyDescent="0.3">
@@ -45407,7 +45598,7 @@
         <v>1130</v>
       </c>
       <c r="B2813" s="1" t="s">
-        <v>8057</v>
+        <v>8054</v>
       </c>
     </row>
     <row r="2814" spans="1:2" x14ac:dyDescent="0.3">
@@ -45431,7 +45622,7 @@
         <v>4995</v>
       </c>
       <c r="B2816" s="1" t="s">
-        <v>8058</v>
+        <v>8055</v>
       </c>
     </row>
     <row r="2817" spans="1:2" x14ac:dyDescent="0.3">
@@ -45536,7 +45727,7 @@
         <v>5756</v>
       </c>
       <c r="B2831" s="1" t="s">
-        <v>8059</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="2832" spans="1:2" x14ac:dyDescent="0.3">
@@ -45548,6 +45739,9 @@
       <c r="A2833" s="1" t="s">
         <v>5720</v>
       </c>
+      <c r="B2833" s="1" t="s">
+        <v>8416</v>
+      </c>
     </row>
     <row r="2834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2834" s="1" t="s">
@@ -45562,7 +45756,7 @@
         <v>1271</v>
       </c>
       <c r="B2835" s="1" t="s">
-        <v>8060</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="2836" spans="1:2" x14ac:dyDescent="0.3">
@@ -45593,7 +45787,7 @@
         <v>2647</v>
       </c>
       <c r="B2840" s="1" t="s">
-        <v>8061</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="2841" spans="1:2" x14ac:dyDescent="0.3">
@@ -45601,7 +45795,7 @@
         <v>4094</v>
       </c>
       <c r="B2841" s="1" t="s">
-        <v>8062</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="2842" spans="1:2" x14ac:dyDescent="0.3">
@@ -45638,7 +45832,7 @@
         <v>4806</v>
       </c>
       <c r="B2846" s="1" t="s">
-        <v>8063</v>
+        <v>8060</v>
       </c>
     </row>
     <row r="2847" spans="1:2" x14ac:dyDescent="0.3">
@@ -45785,7 +45979,7 @@
         <v>5777</v>
       </c>
       <c r="B2867" s="1" t="s">
-        <v>8064</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="2868" spans="1:2" x14ac:dyDescent="0.3">
@@ -45873,7 +46067,7 @@
         <v>4974</v>
       </c>
       <c r="B2878" s="1" t="s">
-        <v>8065</v>
+        <v>8062</v>
       </c>
     </row>
     <row r="2879" spans="1:2" x14ac:dyDescent="0.3">
@@ -45934,7 +46128,7 @@
         <v>3277</v>
       </c>
       <c r="B2886" s="1" t="s">
-        <v>8066</v>
+        <v>8063</v>
       </c>
     </row>
     <row r="2887" spans="1:2" x14ac:dyDescent="0.3">
@@ -46038,7 +46232,7 @@
         <v>4102</v>
       </c>
       <c r="B2899" s="1" t="s">
-        <v>8067</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="2900" spans="1:2" x14ac:dyDescent="0.3">
@@ -46051,7 +46245,7 @@
         <v>6495</v>
       </c>
       <c r="B2901" s="1" t="s">
-        <v>8068</v>
+        <v>8065</v>
       </c>
     </row>
     <row r="2902" spans="1:2" x14ac:dyDescent="0.3">
@@ -46059,7 +46253,7 @@
         <v>3354</v>
       </c>
       <c r="B2902" s="1" t="s">
-        <v>8069</v>
+        <v>8066</v>
       </c>
     </row>
     <row r="2903" spans="1:2" x14ac:dyDescent="0.3">
@@ -46075,7 +46269,7 @@
         <v>898</v>
       </c>
       <c r="B2904" s="1" t="s">
-        <v>8070</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="2905" spans="1:2" x14ac:dyDescent="0.3">
@@ -46088,7 +46282,7 @@
         <v>4473</v>
       </c>
       <c r="B2906" s="1" t="s">
-        <v>8071</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="2907" spans="1:2" x14ac:dyDescent="0.3">
@@ -46096,7 +46290,7 @@
         <v>4057</v>
       </c>
       <c r="B2907" s="1" t="s">
-        <v>8072</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="2908" spans="1:2" x14ac:dyDescent="0.3">
@@ -46125,7 +46319,7 @@
         <v>5497</v>
       </c>
       <c r="B2911" s="1" t="s">
-        <v>8073</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="2912" spans="1:2" x14ac:dyDescent="0.3">
@@ -46141,7 +46335,7 @@
         <v>5455</v>
       </c>
       <c r="B2913" s="1" t="s">
-        <v>8074</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="2914" spans="1:2" x14ac:dyDescent="0.3">
@@ -46149,7 +46343,7 @@
         <v>5095</v>
       </c>
       <c r="B2914" s="1" t="s">
-        <v>8075</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="2915" spans="1:2" x14ac:dyDescent="0.3">
@@ -46157,7 +46351,7 @@
         <v>4793</v>
       </c>
       <c r="B2915" s="1" t="s">
-        <v>8076</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="2916" spans="1:2" x14ac:dyDescent="0.3">
@@ -46181,7 +46375,7 @@
         <v>1396</v>
       </c>
       <c r="B2918" s="1" t="s">
-        <v>8077</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="2919" spans="1:2" x14ac:dyDescent="0.3">
@@ -46989,7 +47183,7 @@
         <v>1868</v>
       </c>
       <c r="B3028" s="1" t="s">
-        <v>8078</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="3029" spans="1:2" x14ac:dyDescent="0.3">
@@ -47261,7 +47455,7 @@
         <v>5485</v>
       </c>
       <c r="B3068" s="1" t="s">
-        <v>8079</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="3069" spans="1:2" x14ac:dyDescent="0.3">
@@ -47550,7 +47744,7 @@
         <v>2523</v>
       </c>
       <c r="B3109" s="1" t="s">
-        <v>8080</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="3110" spans="1:2" x14ac:dyDescent="0.3">
@@ -47558,7 +47752,7 @@
         <v>3780</v>
       </c>
       <c r="B3110" s="1" t="s">
-        <v>8081</v>
+        <v>8078</v>
       </c>
     </row>
     <row r="3111" spans="1:2" x14ac:dyDescent="0.3">
@@ -47566,7 +47760,7 @@
         <v>5885</v>
       </c>
       <c r="B3111" s="1" t="s">
-        <v>8082</v>
+        <v>8079</v>
       </c>
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.3">
@@ -47579,7 +47773,7 @@
         <v>5501</v>
       </c>
       <c r="B3113" s="1" t="s">
-        <v>8083</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="3114" spans="1:2" x14ac:dyDescent="0.3">
@@ -47587,7 +47781,7 @@
         <v>5652</v>
       </c>
       <c r="B3114" s="1" t="s">
-        <v>8084</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="3115" spans="1:2" x14ac:dyDescent="0.3">
@@ -47595,7 +47789,7 @@
         <v>3535</v>
       </c>
       <c r="B3115" s="1" t="s">
-        <v>8085</v>
+        <v>8082</v>
       </c>
     </row>
     <row r="3116" spans="1:2" x14ac:dyDescent="0.3">
@@ -47603,7 +47797,7 @@
         <v>5943</v>
       </c>
       <c r="B3116" s="1" t="s">
-        <v>8086</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="3117" spans="1:2" x14ac:dyDescent="0.3">
@@ -48419,7 +48613,7 @@
         <v>1951</v>
       </c>
       <c r="B3230" s="1" t="s">
-        <v>8087</v>
+        <v>8084</v>
       </c>
     </row>
     <row r="3231" spans="1:2" x14ac:dyDescent="0.3">
@@ -48427,7 +48621,7 @@
         <v>3680</v>
       </c>
       <c r="B3231" s="1" t="s">
-        <v>8088</v>
+        <v>8085</v>
       </c>
     </row>
     <row r="3232" spans="1:2" x14ac:dyDescent="0.3">
@@ -48435,7 +48629,7 @@
         <v>4730</v>
       </c>
       <c r="B3232" s="1" t="s">
-        <v>8089</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="3233" spans="1:2" x14ac:dyDescent="0.3">
@@ -48443,7 +48637,7 @@
         <v>1526</v>
       </c>
       <c r="B3233" s="1" t="s">
-        <v>8090</v>
+        <v>8087</v>
       </c>
     </row>
     <row r="3234" spans="1:2" x14ac:dyDescent="0.3">
@@ -48451,7 +48645,7 @@
         <v>4204</v>
       </c>
       <c r="B3234" s="1" t="s">
-        <v>8091</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="3235" spans="1:2" x14ac:dyDescent="0.3">
@@ -48664,7 +48858,7 @@
         <v>3497</v>
       </c>
       <c r="B3267" s="1" t="s">
-        <v>8092</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="3268" spans="1:2" x14ac:dyDescent="0.3">
@@ -51936,7 +52130,7 @@
         <v>2974</v>
       </c>
       <c r="B3748" s="1" t="s">
-        <v>8093</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="3749" spans="1:2" x14ac:dyDescent="0.3">
@@ -52090,7 +52284,7 @@
         <v>4546</v>
       </c>
       <c r="B3768" s="1" t="s">
-        <v>8094</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="3769" spans="1:2" x14ac:dyDescent="0.3">
@@ -52098,7 +52292,7 @@
         <v>4667</v>
       </c>
       <c r="B3769" s="1" t="s">
-        <v>8095</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="3770" spans="1:2" x14ac:dyDescent="0.3">
@@ -52122,7 +52316,7 @@
         <v>5212</v>
       </c>
       <c r="B3772" s="1" t="s">
-        <v>8096</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="3773" spans="1:2" x14ac:dyDescent="0.3">
@@ -52130,7 +52324,7 @@
         <v>3478</v>
       </c>
       <c r="B3773" s="1" t="s">
-        <v>8097</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="3774" spans="1:2" x14ac:dyDescent="0.3">
@@ -52220,7 +52414,7 @@
         <v>4490</v>
       </c>
       <c r="B3785" s="1" t="s">
-        <v>8098</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="3786" spans="1:2" x14ac:dyDescent="0.3">
@@ -52228,7 +52422,7 @@
         <v>6721</v>
       </c>
       <c r="B3786" s="1" t="s">
-        <v>8098</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="3787" spans="1:2" x14ac:dyDescent="0.3">
@@ -52252,7 +52446,7 @@
         <v>4316</v>
       </c>
       <c r="B3789" s="1" t="s">
-        <v>8099</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="3790" spans="1:2" x14ac:dyDescent="0.3">
@@ -52765,7 +52959,7 @@
         <v>3425</v>
       </c>
       <c r="B3864" s="1" t="s">
-        <v>8100</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="3865" spans="1:2" x14ac:dyDescent="0.3">
@@ -55177,7 +55371,7 @@
         <v>5103</v>
       </c>
       <c r="B4185" s="1" t="s">
-        <v>8101</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="4186" spans="1:2" x14ac:dyDescent="0.3">
@@ -55462,7 +55656,7 @@
         <v>5395</v>
       </c>
       <c r="B4224" s="1" t="s">
-        <v>8102</v>
+        <v>8099</v>
       </c>
     </row>
     <row r="4225" spans="1:2" x14ac:dyDescent="0.3">
@@ -55704,7 +55898,7 @@
         <v>6779</v>
       </c>
       <c r="B4255" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4256" spans="1:2" x14ac:dyDescent="0.3">
@@ -55712,7 +55906,7 @@
         <v>6780</v>
       </c>
       <c r="B4256" s="1" t="s">
-        <v>8130</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="4257" spans="1:2" x14ac:dyDescent="0.3">
@@ -55720,7 +55914,7 @@
         <v>6781</v>
       </c>
       <c r="B4257" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4258" spans="1:2" x14ac:dyDescent="0.3">
@@ -55728,7 +55922,7 @@
         <v>6782</v>
       </c>
       <c r="B4258" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4259" spans="1:2" x14ac:dyDescent="0.3">
@@ -55736,7 +55930,7 @@
         <v>6783</v>
       </c>
       <c r="B4259" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4260" spans="1:2" x14ac:dyDescent="0.3">
@@ -55744,7 +55938,7 @@
         <v>6784</v>
       </c>
       <c r="B4260" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4261" spans="1:2" x14ac:dyDescent="0.3">
@@ -55752,7 +55946,7 @@
         <v>6785</v>
       </c>
       <c r="B4261" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4262" spans="1:2" x14ac:dyDescent="0.3">
@@ -55760,7 +55954,7 @@
         <v>6786</v>
       </c>
       <c r="B4262" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4263" spans="1:2" x14ac:dyDescent="0.3">
@@ -55768,7 +55962,7 @@
         <v>6787</v>
       </c>
       <c r="B4263" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4264" spans="1:2" x14ac:dyDescent="0.3">
@@ -55776,7 +55970,7 @@
         <v>6788</v>
       </c>
       <c r="B4264" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4265" spans="1:2" x14ac:dyDescent="0.3">
@@ -55784,7 +55978,7 @@
         <v>6789</v>
       </c>
       <c r="B4265" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4266" spans="1:2" x14ac:dyDescent="0.3">
@@ -55792,7 +55986,7 @@
         <v>6790</v>
       </c>
       <c r="B4266" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4267" spans="1:2" x14ac:dyDescent="0.3">
@@ -55800,7 +55994,7 @@
         <v>6791</v>
       </c>
       <c r="B4267" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4268" spans="1:2" x14ac:dyDescent="0.3">
@@ -55808,7 +56002,7 @@
         <v>6792</v>
       </c>
       <c r="B4268" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4269" spans="1:2" x14ac:dyDescent="0.3">
@@ -55816,7 +56010,7 @@
         <v>6793</v>
       </c>
       <c r="B4269" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4270" spans="1:2" x14ac:dyDescent="0.3">
@@ -55824,7 +56018,7 @@
         <v>6794</v>
       </c>
       <c r="B4270" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4271" spans="1:2" x14ac:dyDescent="0.3">
@@ -55832,7 +56026,7 @@
         <v>6795</v>
       </c>
       <c r="B4271" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4272" spans="1:2" x14ac:dyDescent="0.3">
@@ -55840,7 +56034,7 @@
         <v>6796</v>
       </c>
       <c r="B4272" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4273" spans="1:2" x14ac:dyDescent="0.3">
@@ -55848,7 +56042,7 @@
         <v>6797</v>
       </c>
       <c r="B4273" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4274" spans="1:2" x14ac:dyDescent="0.3">
@@ -55856,7 +56050,7 @@
         <v>6798</v>
       </c>
       <c r="B4274" s="1" t="s">
-        <v>8131</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="4275" spans="1:2" x14ac:dyDescent="0.3">
@@ -55887,7 +56081,7 @@
         <v>6801</v>
       </c>
       <c r="B4279" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4280" spans="1:2" x14ac:dyDescent="0.3">
@@ -55903,7 +56097,7 @@
         <v>6803</v>
       </c>
       <c r="B4281" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4282" spans="1:2" x14ac:dyDescent="0.3">
@@ -55927,7 +56121,7 @@
         <v>6806</v>
       </c>
       <c r="B4284" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4285" spans="1:2" x14ac:dyDescent="0.3">
@@ -56015,7 +56209,7 @@
         <v>6816</v>
       </c>
       <c r="B4295" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4296" spans="1:2" x14ac:dyDescent="0.3">
@@ -56023,7 +56217,7 @@
         <v>6817</v>
       </c>
       <c r="B4296" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4297" spans="1:2" x14ac:dyDescent="0.3">
@@ -56031,7 +56225,7 @@
         <v>6818</v>
       </c>
       <c r="B4297" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4298" spans="1:2" x14ac:dyDescent="0.3">
@@ -56039,7 +56233,7 @@
         <v>6819</v>
       </c>
       <c r="B4298" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4299" spans="1:2" x14ac:dyDescent="0.3">
@@ -56047,7 +56241,7 @@
         <v>6820</v>
       </c>
       <c r="B4299" s="1" t="s">
-        <v>8130</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="4300" spans="1:2" x14ac:dyDescent="0.3">
@@ -56087,7 +56281,7 @@
         <v>6825</v>
       </c>
       <c r="B4304" s="1" t="s">
-        <v>4862</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4305" spans="1:2" x14ac:dyDescent="0.3">
@@ -56095,7 +56289,7 @@
         <v>6826</v>
       </c>
       <c r="B4305" s="1" t="s">
-        <v>4862</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4306" spans="1:2" x14ac:dyDescent="0.3">
@@ -56103,7 +56297,7 @@
         <v>6827</v>
       </c>
       <c r="B4306" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4307" spans="1:2" x14ac:dyDescent="0.3">
@@ -56119,7 +56313,7 @@
         <v>6829</v>
       </c>
       <c r="B4308" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4309" spans="1:2" x14ac:dyDescent="0.3">
@@ -56127,7 +56321,7 @@
         <v>6830</v>
       </c>
       <c r="B4309" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4310" spans="1:2" x14ac:dyDescent="0.3">
@@ -56135,7 +56329,7 @@
         <v>6831</v>
       </c>
       <c r="B4310" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4311" spans="1:2" x14ac:dyDescent="0.3">
@@ -56143,7 +56337,7 @@
         <v>6832</v>
       </c>
       <c r="B4311" s="1" t="s">
-        <v>8133</v>
+        <v>8129</v>
       </c>
     </row>
     <row r="4312" spans="1:2" x14ac:dyDescent="0.3">
@@ -56151,7 +56345,7 @@
         <v>6833</v>
       </c>
       <c r="B4312" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4313" spans="1:2" x14ac:dyDescent="0.3">
@@ -56159,7 +56353,7 @@
         <v>6834</v>
       </c>
       <c r="B4313" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4314" spans="1:2" x14ac:dyDescent="0.3">
@@ -56167,7 +56361,7 @@
         <v>6835</v>
       </c>
       <c r="B4314" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4315" spans="1:2" x14ac:dyDescent="0.3">
@@ -56175,7 +56369,7 @@
         <v>6836</v>
       </c>
       <c r="B4315" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4316" spans="1:2" x14ac:dyDescent="0.3">
@@ -56183,7 +56377,7 @@
         <v>6837</v>
       </c>
       <c r="B4316" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4317" spans="1:2" x14ac:dyDescent="0.3">
@@ -56191,7 +56385,7 @@
         <v>6838</v>
       </c>
       <c r="B4317" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4318" spans="1:2" x14ac:dyDescent="0.3">
@@ -56199,7 +56393,7 @@
         <v>6839</v>
       </c>
       <c r="B4318" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4319" spans="1:2" x14ac:dyDescent="0.3">
@@ -56207,7 +56401,7 @@
         <v>6840</v>
       </c>
       <c r="B4319" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4320" spans="1:2" x14ac:dyDescent="0.3">
@@ -56215,7 +56409,7 @@
         <v>6841</v>
       </c>
       <c r="B4320" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4321" spans="1:2" x14ac:dyDescent="0.3">
@@ -56223,7 +56417,7 @@
         <v>6842</v>
       </c>
       <c r="B4321" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4322" spans="1:2" x14ac:dyDescent="0.3">
@@ -56231,7 +56425,7 @@
         <v>6843</v>
       </c>
       <c r="B4322" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4323" spans="1:2" x14ac:dyDescent="0.3">
@@ -56239,7 +56433,7 @@
         <v>6844</v>
       </c>
       <c r="B4323" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4324" spans="1:2" x14ac:dyDescent="0.3">
@@ -56247,7 +56441,7 @@
         <v>6845</v>
       </c>
       <c r="B4324" s="1" t="s">
-        <v>8135</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="4325" spans="1:2" x14ac:dyDescent="0.3">
@@ -56255,7 +56449,7 @@
         <v>6846</v>
       </c>
       <c r="B4325" s="1" t="s">
-        <v>4862</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4326" spans="1:2" x14ac:dyDescent="0.3">
@@ -56263,7 +56457,7 @@
         <v>6847</v>
       </c>
       <c r="B4326" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4327" spans="1:2" x14ac:dyDescent="0.3">
@@ -56292,7 +56486,7 @@
         <v>6851</v>
       </c>
       <c r="B4330" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4331" spans="1:2" x14ac:dyDescent="0.3">
@@ -56316,7 +56510,7 @@
         <v>6854</v>
       </c>
       <c r="B4333" s="1" t="s">
-        <v>8134</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="4334" spans="1:2" x14ac:dyDescent="0.3">
@@ -56324,7 +56518,7 @@
         <v>6855</v>
       </c>
       <c r="B4334" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4335" spans="1:2" x14ac:dyDescent="0.3">
@@ -56332,7 +56526,7 @@
         <v>6856</v>
       </c>
       <c r="B4335" s="1" t="s">
-        <v>8134</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="4336" spans="1:2" x14ac:dyDescent="0.3">
@@ -56387,24 +56581,33 @@
       <c r="A4342" s="1" t="s">
         <v>6863</v>
       </c>
+      <c r="B4342" s="1" t="s">
+        <v>6864</v>
+      </c>
     </row>
     <row r="4343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4343" s="1" t="s">
         <v>6864</v>
       </c>
+      <c r="B4343" s="1" t="s">
+        <v>6864</v>
+      </c>
     </row>
     <row r="4344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4344" s="1" t="s">
         <v>6865</v>
       </c>
       <c r="B4344" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4345" s="1" t="s">
         <v>6866</v>
       </c>
+      <c r="B4345" s="1" t="s">
+        <v>6864</v>
+      </c>
     </row>
     <row r="4346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4346" s="1" t="s">
@@ -56459,7 +56662,7 @@
         <v>6873</v>
       </c>
       <c r="B4352" s="1" t="s">
-        <v>4862</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4353" spans="1:2" x14ac:dyDescent="0.3">
@@ -56467,7 +56670,7 @@
         <v>6874</v>
       </c>
       <c r="B4353" s="1" t="s">
-        <v>4862</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4354" spans="1:2" x14ac:dyDescent="0.3">
@@ -56475,7 +56678,7 @@
         <v>6875</v>
       </c>
       <c r="B4354" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4355" spans="1:2" x14ac:dyDescent="0.3">
@@ -56483,7 +56686,7 @@
         <v>6876</v>
       </c>
       <c r="B4355" s="1" t="s">
-        <v>8132</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="4356" spans="1:2" x14ac:dyDescent="0.3">
@@ -56507,7 +56710,7 @@
         <v>5882</v>
       </c>
       <c r="B4358" s="1" t="s">
-        <v>8103</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="4359" spans="1:2" x14ac:dyDescent="0.3">
@@ -57725,7 +57928,7 @@
         <v>5618</v>
       </c>
       <c r="B4532" s="1" t="s">
-        <v>8104</v>
+        <v>8101</v>
       </c>
     </row>
     <row r="4533" spans="1:2" x14ac:dyDescent="0.3">
@@ -57898,7 +58101,7 @@
         <v>4769</v>
       </c>
       <c r="B4557" s="1" t="s">
-        <v>8105</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="4558" spans="1:2" x14ac:dyDescent="0.3">
@@ -57906,7 +58109,7 @@
         <v>2463</v>
       </c>
       <c r="B4558" s="1" t="s">
-        <v>8106</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="4559" spans="1:2" x14ac:dyDescent="0.3">
@@ -58003,20 +58206,23 @@
         <v>5887</v>
       </c>
       <c r="B4572" s="1" t="s">
-        <v>8107</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="4573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4573" s="1" t="s">
         <v>5820</v>
       </c>
+      <c r="B4573" s="1" t="s">
+        <v>5820</v>
+      </c>
     </row>
     <row r="4574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4574" s="1" t="s">
         <v>5376</v>
       </c>
       <c r="B4574" s="1" t="s">
-        <v>8108</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="4575" spans="1:2" x14ac:dyDescent="0.3">
@@ -58029,7 +58235,7 @@
         <v>5310</v>
       </c>
       <c r="B4576" s="1" t="s">
-        <v>8109</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="4577" spans="1:2" x14ac:dyDescent="0.3">
@@ -59841,7 +60047,7 @@
         <v>3049</v>
       </c>
       <c r="B4825" s="1" t="s">
-        <v>8110</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="4826" spans="1:2" x14ac:dyDescent="0.3">
@@ -59881,7 +60087,7 @@
         <v>5734</v>
       </c>
       <c r="B4830" s="1" t="s">
-        <v>8111</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="4831" spans="1:2" x14ac:dyDescent="0.3">
@@ -59889,7 +60095,7 @@
         <v>5901</v>
       </c>
       <c r="B4831" s="1" t="s">
-        <v>8112</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="4832" spans="1:2" x14ac:dyDescent="0.3">
@@ -59929,7 +60135,7 @@
         <v>3677</v>
       </c>
       <c r="B4836" s="1" t="s">
-        <v>8113</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="4837" spans="1:2" x14ac:dyDescent="0.3">
@@ -59945,7 +60151,7 @@
         <v>4038</v>
       </c>
       <c r="B4838" s="1" t="s">
-        <v>8114</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="4839" spans="1:2" x14ac:dyDescent="0.3">
@@ -59953,7 +60159,7 @@
         <v>3271</v>
       </c>
       <c r="B4839" s="1" t="s">
-        <v>8115</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="4840" spans="1:2" x14ac:dyDescent="0.3">
@@ -59961,7 +60167,7 @@
         <v>5662</v>
       </c>
       <c r="B4840" s="1" t="s">
-        <v>8116</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="4841" spans="1:2" x14ac:dyDescent="0.3">
@@ -59969,7 +60175,7 @@
         <v>5854</v>
       </c>
       <c r="B4841" s="1" t="s">
-        <v>8117</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="4842" spans="1:2" x14ac:dyDescent="0.3">
@@ -59985,7 +60191,7 @@
         <v>5912</v>
       </c>
       <c r="B4843" s="1" t="s">
-        <v>8118</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="4844" spans="1:2" x14ac:dyDescent="0.3">
@@ -60001,7 +60207,7 @@
         <v>4337</v>
       </c>
       <c r="B4845" s="1" t="s">
-        <v>8119</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="4846" spans="1:2" x14ac:dyDescent="0.3">
@@ -60009,7 +60215,7 @@
         <v>5732</v>
       </c>
       <c r="B4846" s="1" t="s">
-        <v>8120</v>
+        <v>8116</v>
       </c>
     </row>
     <row r="4847" spans="1:2" x14ac:dyDescent="0.3">
@@ -60089,7 +60295,7 @@
         <v>5723</v>
       </c>
       <c r="B4859" s="1" t="s">
-        <v>8121</v>
+        <v>8117</v>
       </c>
     </row>
     <row r="4860" spans="1:2" x14ac:dyDescent="0.3">
@@ -60097,7 +60303,7 @@
         <v>5946</v>
       </c>
       <c r="B4860" s="1" t="s">
-        <v>8122</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="4861" spans="1:2" x14ac:dyDescent="0.3">
@@ -60549,7 +60755,7 @@
         <v>5323</v>
       </c>
       <c r="B4936" s="1" t="s">
-        <v>8123</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="4937" spans="1:2" x14ac:dyDescent="0.3">
@@ -60562,7 +60768,7 @@
         <v>3474</v>
       </c>
       <c r="B4938" s="1" t="s">
-        <v>8124</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="4939" spans="1:2" x14ac:dyDescent="0.3">
@@ -60570,7 +60776,7 @@
         <v>5113</v>
       </c>
       <c r="B4939" s="1" t="s">
-        <v>8125</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="4940" spans="1:2" x14ac:dyDescent="0.3">
@@ -65162,7 +65368,7 @@
         <v>449</v>
       </c>
       <c r="B5588" s="1" t="s">
-        <v>8126</v>
+        <v>8122</v>
       </c>
     </row>
     <row r="5589" spans="1:2" x14ac:dyDescent="0.3">
@@ -65194,7 +65400,7 @@
         <v>2958</v>
       </c>
       <c r="B5592" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5593" spans="1:2" x14ac:dyDescent="0.3">
@@ -65202,7 +65408,7 @@
         <v>7145</v>
       </c>
       <c r="B5593" s="1" t="s">
-        <v>8139</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="5594" spans="1:2" x14ac:dyDescent="0.3">
@@ -65210,7 +65416,7 @@
         <v>7146</v>
       </c>
       <c r="B5594" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5595" spans="1:2" x14ac:dyDescent="0.3">
@@ -65218,7 +65424,7 @@
         <v>7147</v>
       </c>
       <c r="B5595" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5596" spans="1:2" x14ac:dyDescent="0.3">
@@ -65226,7 +65432,7 @@
         <v>7148</v>
       </c>
       <c r="B5596" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5597" spans="1:2" x14ac:dyDescent="0.3">
@@ -65234,7 +65440,7 @@
         <v>7149</v>
       </c>
       <c r="B5597" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5598" spans="1:2" x14ac:dyDescent="0.3">
@@ -65242,7 +65448,7 @@
         <v>7150</v>
       </c>
       <c r="B5598" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5599" spans="1:2" x14ac:dyDescent="0.3">
@@ -65250,7 +65456,7 @@
         <v>7151</v>
       </c>
       <c r="B5599" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5600" spans="1:2" x14ac:dyDescent="0.3">
@@ -65258,7 +65464,7 @@
         <v>7152</v>
       </c>
       <c r="B5600" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5601" spans="1:2" x14ac:dyDescent="0.3">
@@ -65266,7 +65472,7 @@
         <v>7153</v>
       </c>
       <c r="B5601" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5602" spans="1:2" x14ac:dyDescent="0.3">
@@ -65274,7 +65480,7 @@
         <v>7154</v>
       </c>
       <c r="B5602" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5603" spans="1:2" x14ac:dyDescent="0.3">
@@ -65282,7 +65488,7 @@
         <v>7155</v>
       </c>
       <c r="B5603" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5604" spans="1:2" x14ac:dyDescent="0.3">
@@ -65290,7 +65496,7 @@
         <v>7156</v>
       </c>
       <c r="B5604" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5605" spans="1:2" x14ac:dyDescent="0.3">
@@ -65298,7 +65504,7 @@
         <v>7157</v>
       </c>
       <c r="B5605" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5606" spans="1:2" x14ac:dyDescent="0.3">
@@ -65306,7 +65512,7 @@
         <v>7158</v>
       </c>
       <c r="B5606" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5607" spans="1:2" x14ac:dyDescent="0.3">
@@ -65314,7 +65520,7 @@
         <v>7159</v>
       </c>
       <c r="B5607" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5608" spans="1:2" x14ac:dyDescent="0.3">
@@ -65322,7 +65528,7 @@
         <v>7160</v>
       </c>
       <c r="B5608" s="1" t="s">
-        <v>8136</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="5609" spans="1:2" x14ac:dyDescent="0.3">
@@ -65338,7 +65544,7 @@
         <v>7161</v>
       </c>
       <c r="B5610" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5611" spans="1:2" x14ac:dyDescent="0.3">
@@ -65346,7 +65552,7 @@
         <v>7162</v>
       </c>
       <c r="B5611" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5612" spans="1:2" x14ac:dyDescent="0.3">
@@ -65402,7 +65608,7 @@
         <v>7169</v>
       </c>
       <c r="B5618" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5619" spans="1:2" x14ac:dyDescent="0.3">
@@ -65458,7 +65664,7 @@
         <v>7176</v>
       </c>
       <c r="B5625" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5626" spans="1:2" x14ac:dyDescent="0.3">
@@ -65466,7 +65672,7 @@
         <v>7177</v>
       </c>
       <c r="B5626" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5627" spans="1:2" x14ac:dyDescent="0.3">
@@ -65490,7 +65696,7 @@
         <v>7179</v>
       </c>
       <c r="B5629" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5630" spans="1:2" x14ac:dyDescent="0.3">
@@ -65498,7 +65704,7 @@
         <v>7180</v>
       </c>
       <c r="B5630" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5631" spans="1:2" x14ac:dyDescent="0.3">
@@ -65506,7 +65712,7 @@
         <v>7181</v>
       </c>
       <c r="B5631" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5632" spans="1:2" x14ac:dyDescent="0.3">
@@ -65514,7 +65720,7 @@
         <v>7182</v>
       </c>
       <c r="B5632" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5633" spans="1:2" x14ac:dyDescent="0.3">
@@ -65522,7 +65728,7 @@
         <v>7183</v>
       </c>
       <c r="B5633" s="1" t="s">
-        <v>8139</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="5634" spans="1:2" x14ac:dyDescent="0.3">
@@ -65562,7 +65768,7 @@
         <v>7188</v>
       </c>
       <c r="B5638" s="1" t="s">
-        <v>5667</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="5639" spans="1:2" x14ac:dyDescent="0.3">
@@ -65570,7 +65776,7 @@
         <v>7189</v>
       </c>
       <c r="B5639" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5640" spans="1:2" x14ac:dyDescent="0.3">
@@ -65586,7 +65792,7 @@
         <v>7191</v>
       </c>
       <c r="B5641" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5642" spans="1:2" x14ac:dyDescent="0.3">
@@ -65594,7 +65800,7 @@
         <v>7192</v>
       </c>
       <c r="B5642" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5643" spans="1:2" x14ac:dyDescent="0.3">
@@ -65602,7 +65808,7 @@
         <v>7193</v>
       </c>
       <c r="B5643" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5644" spans="1:2" x14ac:dyDescent="0.3">
@@ -65610,7 +65816,7 @@
         <v>7194</v>
       </c>
       <c r="B5644" s="1" t="s">
-        <v>8138</v>
+        <v>8134</v>
       </c>
     </row>
     <row r="5645" spans="1:2" x14ac:dyDescent="0.3">
@@ -65618,7 +65824,7 @@
         <v>7195</v>
       </c>
       <c r="B5645" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5646" spans="1:2" x14ac:dyDescent="0.3">
@@ -65626,7 +65832,7 @@
         <v>7196</v>
       </c>
       <c r="B5646" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5647" spans="1:2" x14ac:dyDescent="0.3">
@@ -65634,7 +65840,7 @@
         <v>7197</v>
       </c>
       <c r="B5647" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5648" spans="1:2" x14ac:dyDescent="0.3">
@@ -65642,7 +65848,7 @@
         <v>7198</v>
       </c>
       <c r="B5648" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5649" spans="1:2" x14ac:dyDescent="0.3">
@@ -65650,7 +65856,7 @@
         <v>7199</v>
       </c>
       <c r="B5649" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5650" spans="1:2" x14ac:dyDescent="0.3">
@@ -65658,7 +65864,7 @@
         <v>7200</v>
       </c>
       <c r="B5650" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5651" spans="1:2" x14ac:dyDescent="0.3">
@@ -65666,7 +65872,7 @@
         <v>7201</v>
       </c>
       <c r="B5651" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5652" spans="1:2" x14ac:dyDescent="0.3">
@@ -65674,7 +65880,7 @@
         <v>7202</v>
       </c>
       <c r="B5652" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5653" spans="1:2" x14ac:dyDescent="0.3">
@@ -65682,7 +65888,7 @@
         <v>7203</v>
       </c>
       <c r="B5653" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5654" spans="1:2" x14ac:dyDescent="0.3">
@@ -65690,7 +65896,7 @@
         <v>7204</v>
       </c>
       <c r="B5654" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5655" spans="1:2" x14ac:dyDescent="0.3">
@@ -65698,7 +65904,7 @@
         <v>7205</v>
       </c>
       <c r="B5655" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5656" spans="1:2" x14ac:dyDescent="0.3">
@@ -65706,7 +65912,7 @@
         <v>7206</v>
       </c>
       <c r="B5656" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5657" spans="1:2" x14ac:dyDescent="0.3">
@@ -65714,7 +65920,7 @@
         <v>7207</v>
       </c>
       <c r="B5657" s="1" t="s">
-        <v>8140</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="5658" spans="1:2" x14ac:dyDescent="0.3">
@@ -65722,7 +65928,7 @@
         <v>7208</v>
       </c>
       <c r="B5658" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5659" spans="1:2" x14ac:dyDescent="0.3">
@@ -65738,7 +65944,7 @@
         <v>7210</v>
       </c>
       <c r="B5660" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5661" spans="1:2" x14ac:dyDescent="0.3">
@@ -65762,7 +65968,7 @@
         <v>7213</v>
       </c>
       <c r="B5663" s="1" t="s">
-        <v>8397</v>
+        <v>8393</v>
       </c>
     </row>
     <row r="5664" spans="1:2" x14ac:dyDescent="0.3">
@@ -65770,7 +65976,7 @@
         <v>7214</v>
       </c>
       <c r="B5664" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5665" spans="1:2" x14ac:dyDescent="0.3">
@@ -65833,24 +66039,33 @@
       <c r="A5672" s="1" t="s">
         <v>7222</v>
       </c>
+      <c r="B5672" s="1" t="s">
+        <v>7223</v>
+      </c>
     </row>
     <row r="5673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5673" s="1" t="s">
         <v>7223</v>
       </c>
+      <c r="B5673" s="1" t="s">
+        <v>7223</v>
+      </c>
     </row>
     <row r="5674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5674" s="1" t="s">
         <v>7224</v>
       </c>
       <c r="B5674" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5675" s="1" t="s">
         <v>7225</v>
       </c>
+      <c r="B5675" s="1" t="s">
+        <v>7223</v>
+      </c>
     </row>
     <row r="5676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5676" s="1" t="s">
@@ -65897,7 +66112,7 @@
         <v>7231</v>
       </c>
       <c r="B5681" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5682" spans="1:2" x14ac:dyDescent="0.3">
@@ -65905,7 +66120,7 @@
         <v>7232</v>
       </c>
       <c r="B5682" s="1" t="s">
-        <v>5667</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="5683" spans="1:2" x14ac:dyDescent="0.3">
@@ -65913,7 +66128,7 @@
         <v>7233</v>
       </c>
       <c r="B5683" s="1" t="s">
-        <v>5667</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="5684" spans="1:2" x14ac:dyDescent="0.3">
@@ -65921,7 +66136,7 @@
         <v>7234</v>
       </c>
       <c r="B5684" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5685" spans="1:2" x14ac:dyDescent="0.3">
@@ -65929,7 +66144,7 @@
         <v>7235</v>
       </c>
       <c r="B5685" s="1" t="s">
-        <v>8137</v>
+        <v>8133</v>
       </c>
     </row>
     <row r="5686" spans="1:2" x14ac:dyDescent="0.3">
@@ -65937,7 +66152,7 @@
         <v>7236</v>
       </c>
       <c r="B5686" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5687" spans="1:2" x14ac:dyDescent="0.3">
@@ -65945,7 +66160,7 @@
         <v>7237</v>
       </c>
       <c r="B5687" s="1" t="s">
-        <v>8143</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="5688" spans="1:2" x14ac:dyDescent="0.3">
@@ -65953,7 +66168,7 @@
         <v>7238</v>
       </c>
       <c r="B5688" s="1" t="s">
-        <v>8143</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="5689" spans="1:2" x14ac:dyDescent="0.3">
@@ -65961,7 +66176,7 @@
         <v>7239</v>
       </c>
       <c r="B5689" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5690" spans="1:2" x14ac:dyDescent="0.3">
@@ -65969,7 +66184,7 @@
         <v>7240</v>
       </c>
       <c r="B5690" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5691" spans="1:2" x14ac:dyDescent="0.3">
@@ -65977,7 +66192,7 @@
         <v>7241</v>
       </c>
       <c r="B5691" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5692" spans="1:2" x14ac:dyDescent="0.3">
@@ -65985,7 +66200,7 @@
         <v>7242</v>
       </c>
       <c r="B5692" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5693" spans="1:2" x14ac:dyDescent="0.3">
@@ -65993,7 +66208,7 @@
         <v>7243</v>
       </c>
       <c r="B5693" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5694" spans="1:2" x14ac:dyDescent="0.3">
@@ -66001,7 +66216,7 @@
         <v>7244</v>
       </c>
       <c r="B5694" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5695" spans="1:2" x14ac:dyDescent="0.3">
@@ -66009,7 +66224,7 @@
         <v>7245</v>
       </c>
       <c r="B5695" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5696" spans="1:2" x14ac:dyDescent="0.3">
@@ -66017,7 +66232,7 @@
         <v>7246</v>
       </c>
       <c r="B5696" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5697" spans="1:2" x14ac:dyDescent="0.3">
@@ -66025,7 +66240,7 @@
         <v>7247</v>
       </c>
       <c r="B5697" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5698" spans="1:2" x14ac:dyDescent="0.3">
@@ -66033,7 +66248,7 @@
         <v>7248</v>
       </c>
       <c r="B5698" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5699" spans="1:2" x14ac:dyDescent="0.3">
@@ -66041,7 +66256,7 @@
         <v>7249</v>
       </c>
       <c r="B5699" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5700" spans="1:2" x14ac:dyDescent="0.3">
@@ -66049,7 +66264,7 @@
         <v>7250</v>
       </c>
       <c r="B5700" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5701" spans="1:2" x14ac:dyDescent="0.3">
@@ -66057,7 +66272,7 @@
         <v>7251</v>
       </c>
       <c r="B5701" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5702" spans="1:2" x14ac:dyDescent="0.3">
@@ -66065,7 +66280,7 @@
         <v>7252</v>
       </c>
       <c r="B5702" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5703" spans="1:2" x14ac:dyDescent="0.3">
@@ -66073,7 +66288,7 @@
         <v>7253</v>
       </c>
       <c r="B5703" s="1" t="s">
-        <v>8142</v>
+        <v>8138</v>
       </c>
     </row>
     <row r="5704" spans="1:2" x14ac:dyDescent="0.3">
@@ -66081,7 +66296,7 @@
         <v>7254</v>
       </c>
       <c r="B5704" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5705" spans="1:2" x14ac:dyDescent="0.3">
@@ -66089,7 +66304,7 @@
         <v>7255</v>
       </c>
       <c r="B5705" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5706" spans="1:2" x14ac:dyDescent="0.3">
@@ -66097,7 +66312,7 @@
         <v>7256</v>
       </c>
       <c r="B5706" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5707" spans="1:2" x14ac:dyDescent="0.3">
@@ -66105,7 +66320,7 @@
         <v>7257</v>
       </c>
       <c r="B5707" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5708" spans="1:2" x14ac:dyDescent="0.3">
@@ -66113,7 +66328,7 @@
         <v>7258</v>
       </c>
       <c r="B5708" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5709" spans="1:2" x14ac:dyDescent="0.3">
@@ -66121,7 +66336,7 @@
         <v>7259</v>
       </c>
       <c r="B5709" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5710" spans="1:2" x14ac:dyDescent="0.3">
@@ -66129,7 +66344,7 @@
         <v>7260</v>
       </c>
       <c r="B5710" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5711" spans="1:2" x14ac:dyDescent="0.3">
@@ -66137,7 +66352,7 @@
         <v>7261</v>
       </c>
       <c r="B5711" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5712" spans="1:2" x14ac:dyDescent="0.3">
@@ -66145,7 +66360,7 @@
         <v>7262</v>
       </c>
       <c r="B5712" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5713" spans="1:2" x14ac:dyDescent="0.3">
@@ -66201,7 +66416,7 @@
         <v>7269</v>
       </c>
       <c r="B5719" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5720" spans="1:2" x14ac:dyDescent="0.3">
@@ -66209,7 +66424,7 @@
         <v>7270</v>
       </c>
       <c r="B5720" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5721" spans="1:2" x14ac:dyDescent="0.3">
@@ -66233,7 +66448,7 @@
         <v>7272</v>
       </c>
       <c r="B5723" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5724" spans="1:2" x14ac:dyDescent="0.3">
@@ -66241,7 +66456,7 @@
         <v>7273</v>
       </c>
       <c r="B5724" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5725" spans="1:2" x14ac:dyDescent="0.3">
@@ -66249,7 +66464,7 @@
         <v>7274</v>
       </c>
       <c r="B5725" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5726" spans="1:2" x14ac:dyDescent="0.3">
@@ -66257,7 +66472,7 @@
         <v>7275</v>
       </c>
       <c r="B5726" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5727" spans="1:2" x14ac:dyDescent="0.3">
@@ -66265,7 +66480,7 @@
         <v>7276</v>
       </c>
       <c r="B5727" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5728" spans="1:2" x14ac:dyDescent="0.3">
@@ -66273,7 +66488,7 @@
         <v>7277</v>
       </c>
       <c r="B5728" s="1" t="s">
-        <v>8143</v>
+        <v>8139</v>
       </c>
     </row>
     <row r="5729" spans="1:2" x14ac:dyDescent="0.3">
@@ -66281,7 +66496,7 @@
         <v>7278</v>
       </c>
       <c r="B5729" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5730" spans="1:2" x14ac:dyDescent="0.3">
@@ -66289,7 +66504,7 @@
         <v>7279</v>
       </c>
       <c r="B5730" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5731" spans="1:2" x14ac:dyDescent="0.3">
@@ -66297,7 +66512,7 @@
         <v>7280</v>
       </c>
       <c r="B5731" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5732" spans="1:2" x14ac:dyDescent="0.3">
@@ -66305,7 +66520,7 @@
         <v>7281</v>
       </c>
       <c r="B5732" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5733" spans="1:2" x14ac:dyDescent="0.3">
@@ -66313,7 +66528,7 @@
         <v>7282</v>
       </c>
       <c r="B5733" s="1" t="s">
-        <v>8145</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="5734" spans="1:2" x14ac:dyDescent="0.3">
@@ -66321,7 +66536,7 @@
         <v>7283</v>
       </c>
       <c r="B5734" s="1" t="s">
-        <v>8145</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="5735" spans="1:2" x14ac:dyDescent="0.3">
@@ -66329,7 +66544,7 @@
         <v>7284</v>
       </c>
       <c r="B5735" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5736" spans="1:2" x14ac:dyDescent="0.3">
@@ -66337,7 +66552,7 @@
         <v>7285</v>
       </c>
       <c r="B5736" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5737" spans="1:2" x14ac:dyDescent="0.3">
@@ -66345,7 +66560,7 @@
         <v>7286</v>
       </c>
       <c r="B5737" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5738" spans="1:2" x14ac:dyDescent="0.3">
@@ -66353,7 +66568,7 @@
         <v>7287</v>
       </c>
       <c r="B5738" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5739" spans="1:2" x14ac:dyDescent="0.3">
@@ -66361,7 +66576,7 @@
         <v>7288</v>
       </c>
       <c r="B5739" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5740" spans="1:2" x14ac:dyDescent="0.3">
@@ -66369,7 +66584,7 @@
         <v>7289</v>
       </c>
       <c r="B5740" s="1" t="s">
-        <v>8146</v>
+        <v>8142</v>
       </c>
     </row>
     <row r="5741" spans="1:2" x14ac:dyDescent="0.3">
@@ -66377,7 +66592,7 @@
         <v>7290</v>
       </c>
       <c r="B5741" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5742" spans="1:2" x14ac:dyDescent="0.3">
@@ -66385,7 +66600,7 @@
         <v>7291</v>
       </c>
       <c r="B5742" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5743" spans="1:2" x14ac:dyDescent="0.3">
@@ -66393,7 +66608,7 @@
         <v>7292</v>
       </c>
       <c r="B5743" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5744" spans="1:2" x14ac:dyDescent="0.3">
@@ -66401,7 +66616,7 @@
         <v>7293</v>
       </c>
       <c r="B5744" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5745" spans="1:2" x14ac:dyDescent="0.3">
@@ -66409,7 +66624,7 @@
         <v>7294</v>
       </c>
       <c r="B5745" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5746" spans="1:2" x14ac:dyDescent="0.3">
@@ -66417,7 +66632,7 @@
         <v>7295</v>
       </c>
       <c r="B5746" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5747" spans="1:2" x14ac:dyDescent="0.3">
@@ -66425,7 +66640,7 @@
         <v>7296</v>
       </c>
       <c r="B5747" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5748" spans="1:2" x14ac:dyDescent="0.3">
@@ -66433,7 +66648,7 @@
         <v>7297</v>
       </c>
       <c r="B5748" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5749" spans="1:2" x14ac:dyDescent="0.3">
@@ -66441,7 +66656,7 @@
         <v>7298</v>
       </c>
       <c r="B5749" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5750" spans="1:2" x14ac:dyDescent="0.3">
@@ -66449,7 +66664,7 @@
         <v>7299</v>
       </c>
       <c r="B5750" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5751" spans="1:2" x14ac:dyDescent="0.3">
@@ -66457,7 +66672,7 @@
         <v>7300</v>
       </c>
       <c r="B5751" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5752" spans="1:2" x14ac:dyDescent="0.3">
@@ -66465,7 +66680,7 @@
         <v>7301</v>
       </c>
       <c r="B5752" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5753" spans="1:2" x14ac:dyDescent="0.3">
@@ -66473,7 +66688,7 @@
         <v>7302</v>
       </c>
       <c r="B5753" s="1" t="s">
-        <v>8147</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="5754" spans="1:2" x14ac:dyDescent="0.3">
@@ -66481,7 +66696,7 @@
         <v>7303</v>
       </c>
       <c r="B5754" s="1" t="s">
-        <v>8145</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="5755" spans="1:2" x14ac:dyDescent="0.3">
@@ -66489,7 +66704,7 @@
         <v>7304</v>
       </c>
       <c r="B5755" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5756" spans="1:2" x14ac:dyDescent="0.3">
@@ -66502,7 +66717,7 @@
         <v>7306</v>
       </c>
       <c r="B5757" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5758" spans="1:2" x14ac:dyDescent="0.3">
@@ -66510,7 +66725,7 @@
         <v>7307</v>
       </c>
       <c r="B5758" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5759" spans="1:2" x14ac:dyDescent="0.3">
@@ -66518,7 +66733,7 @@
         <v>7308</v>
       </c>
       <c r="B5759" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5760" spans="1:2" x14ac:dyDescent="0.3">
@@ -66526,7 +66741,7 @@
         <v>7309</v>
       </c>
       <c r="B5760" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5761" spans="1:2" x14ac:dyDescent="0.3">
@@ -66534,7 +66749,7 @@
         <v>7310</v>
       </c>
       <c r="B5761" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5762" spans="1:2" x14ac:dyDescent="0.3">
@@ -66542,7 +66757,7 @@
         <v>7311</v>
       </c>
       <c r="B5762" s="1" t="s">
-        <v>8141</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="5763" spans="1:2" x14ac:dyDescent="0.3">
@@ -66550,7 +66765,7 @@
         <v>7312</v>
       </c>
       <c r="B5763" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5764" spans="1:2" x14ac:dyDescent="0.3">
@@ -66558,7 +66773,7 @@
         <v>7313</v>
       </c>
       <c r="B5764" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5765" spans="1:2" x14ac:dyDescent="0.3">
@@ -66566,7 +66781,7 @@
         <v>7314</v>
       </c>
       <c r="B5765" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5766" spans="1:2" x14ac:dyDescent="0.3">
@@ -66574,7 +66789,7 @@
         <v>7315</v>
       </c>
       <c r="B5766" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5767" spans="1:2" x14ac:dyDescent="0.3">
@@ -66582,7 +66797,7 @@
         <v>7316</v>
       </c>
       <c r="B5767" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5768" spans="1:2" x14ac:dyDescent="0.3">
@@ -66590,7 +66805,7 @@
         <v>7317</v>
       </c>
       <c r="B5768" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5769" spans="1:2" x14ac:dyDescent="0.3">
@@ -66605,31 +66820,40 @@
       <c r="A5770" s="1" t="s">
         <v>7319</v>
       </c>
+      <c r="B5770" s="1" t="s">
+        <v>7320</v>
+      </c>
     </row>
     <row r="5771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5771" s="1" t="s">
         <v>7320</v>
       </c>
+      <c r="B5771" s="1" t="s">
+        <v>7320</v>
+      </c>
     </row>
     <row r="5772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5772" s="1" t="s">
         <v>7321</v>
       </c>
       <c r="B5772" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5773" s="1" t="s">
         <v>7322</v>
       </c>
+      <c r="B5773" s="1" t="s">
+        <v>7320</v>
+      </c>
     </row>
     <row r="5774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5774" s="1" t="s">
         <v>7323</v>
       </c>
       <c r="B5774" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5775" spans="1:2" x14ac:dyDescent="0.3">
@@ -66637,7 +66861,7 @@
         <v>7324</v>
       </c>
       <c r="B5775" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5776" spans="1:2" x14ac:dyDescent="0.3">
@@ -66645,7 +66869,7 @@
         <v>7325</v>
       </c>
       <c r="B5776" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5777" spans="1:2" x14ac:dyDescent="0.3">
@@ -66653,7 +66877,7 @@
         <v>7326</v>
       </c>
       <c r="B5777" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5778" spans="1:2" x14ac:dyDescent="0.3">
@@ -66661,7 +66885,7 @@
         <v>7327</v>
       </c>
       <c r="B5778" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5779" spans="1:2" x14ac:dyDescent="0.3">
@@ -66669,7 +66893,7 @@
         <v>7328</v>
       </c>
       <c r="B5779" s="1" t="s">
-        <v>8145</v>
+        <v>8141</v>
       </c>
     </row>
     <row r="5780" spans="1:2" x14ac:dyDescent="0.3">
@@ -66677,7 +66901,7 @@
         <v>7329</v>
       </c>
       <c r="B5780" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5781" spans="1:2" x14ac:dyDescent="0.3">
@@ -66685,7 +66909,7 @@
         <v>7330</v>
       </c>
       <c r="B5781" s="1" t="s">
-        <v>8145</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="5782" spans="1:2" x14ac:dyDescent="0.3">
@@ -66693,7 +66917,7 @@
         <v>7331</v>
       </c>
       <c r="B5782" s="1" t="s">
-        <v>8145</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="5783" spans="1:2" x14ac:dyDescent="0.3">
@@ -66701,7 +66925,7 @@
         <v>7332</v>
       </c>
       <c r="B5783" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5784" spans="1:2" x14ac:dyDescent="0.3">
@@ -66709,7 +66933,7 @@
         <v>7333</v>
       </c>
       <c r="B5784" s="1" t="s">
-        <v>8144</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="5785" spans="1:2" x14ac:dyDescent="0.3">
@@ -67275,7 +67499,7 @@
         <v>5728</v>
       </c>
       <c r="B5866" s="1" t="s">
-        <v>8127</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="5867" spans="1:2" x14ac:dyDescent="0.3">
@@ -67299,7 +67523,7 @@
         <v>5883</v>
       </c>
       <c r="B5869" s="1" t="s">
-        <v>8128</v>
+        <v>8124</v>
       </c>
     </row>
     <row r="5870" spans="1:2" x14ac:dyDescent="0.3">
@@ -80636,7 +80860,7 @@
         <v>7721</v>
       </c>
       <c r="B7568" s="1" t="s">
-        <v>8148</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="7569" spans="1:2" x14ac:dyDescent="0.3">
@@ -80644,7 +80868,7 @@
         <v>7722</v>
       </c>
       <c r="B7569" s="1" t="s">
-        <v>8149</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="7570" spans="1:2" x14ac:dyDescent="0.3">
@@ -80652,7 +80876,7 @@
         <v>7723</v>
       </c>
       <c r="B7570" s="1" t="s">
-        <v>8150</v>
+        <v>8146</v>
       </c>
     </row>
     <row r="7571" spans="1:2" x14ac:dyDescent="0.3">
@@ -80660,7 +80884,7 @@
         <v>7724</v>
       </c>
       <c r="B7571" s="1" t="s">
-        <v>8151</v>
+        <v>8147</v>
       </c>
     </row>
     <row r="7572" spans="1:2" x14ac:dyDescent="0.3">
@@ -80668,7 +80892,7 @@
         <v>7725</v>
       </c>
       <c r="B7572" s="1" t="s">
-        <v>8152</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="7573" spans="1:2" x14ac:dyDescent="0.3">
@@ -80676,7 +80900,7 @@
         <v>7726</v>
       </c>
       <c r="B7573" s="1" t="s">
-        <v>8153</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="7574" spans="1:2" x14ac:dyDescent="0.3">
@@ -80684,7 +80908,7 @@
         <v>7727</v>
       </c>
       <c r="B7574" s="1" t="s">
-        <v>8154</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="7575" spans="1:2" x14ac:dyDescent="0.3">
@@ -80692,7 +80916,7 @@
         <v>7728</v>
       </c>
       <c r="B7575" s="1" t="s">
-        <v>8155</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="7576" spans="1:2" x14ac:dyDescent="0.3">
@@ -80700,7 +80924,7 @@
         <v>7729</v>
       </c>
       <c r="B7576" s="1" t="s">
-        <v>8156</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="7577" spans="1:2" x14ac:dyDescent="0.3">
@@ -80708,7 +80932,7 @@
         <v>7730</v>
       </c>
       <c r="B7577" s="1" t="s">
-        <v>8157</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="7578" spans="1:2" x14ac:dyDescent="0.3">
@@ -80716,7 +80940,7 @@
         <v>7731</v>
       </c>
       <c r="B7578" s="1" t="s">
-        <v>8158</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="7579" spans="1:2" x14ac:dyDescent="0.3">
@@ -80724,7 +80948,7 @@
         <v>7732</v>
       </c>
       <c r="B7579" s="1" t="s">
-        <v>8159</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="7580" spans="1:2" x14ac:dyDescent="0.3">
@@ -80732,7 +80956,7 @@
         <v>7733</v>
       </c>
       <c r="B7580" s="1" t="s">
-        <v>8160</v>
+        <v>8156</v>
       </c>
     </row>
     <row r="7581" spans="1:2" x14ac:dyDescent="0.3">
@@ -80740,7 +80964,7 @@
         <v>7734</v>
       </c>
       <c r="B7581" s="1" t="s">
-        <v>8161</v>
+        <v>8157</v>
       </c>
     </row>
     <row r="7582" spans="1:2" x14ac:dyDescent="0.3">
@@ -80748,7 +80972,7 @@
         <v>7735</v>
       </c>
       <c r="B7582" s="1" t="s">
-        <v>8162</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="7583" spans="1:2" x14ac:dyDescent="0.3">
@@ -80756,7 +80980,7 @@
         <v>7736</v>
       </c>
       <c r="B7583" s="1" t="s">
-        <v>8163</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="7584" spans="1:2" x14ac:dyDescent="0.3">
@@ -80764,7 +80988,7 @@
         <v>7737</v>
       </c>
       <c r="B7584" s="1" t="s">
-        <v>8164</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="7585" spans="1:2" x14ac:dyDescent="0.3">
@@ -80772,7 +80996,7 @@
         <v>7738</v>
       </c>
       <c r="B7585" s="1" t="s">
-        <v>8165</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="7586" spans="1:2" x14ac:dyDescent="0.3">
@@ -80780,7 +81004,7 @@
         <v>7739</v>
       </c>
       <c r="B7586" s="1" t="s">
-        <v>8166</v>
+        <v>8162</v>
       </c>
     </row>
     <row r="7587" spans="1:2" x14ac:dyDescent="0.3">
@@ -80788,7 +81012,7 @@
         <v>7740</v>
       </c>
       <c r="B7587" s="1" t="s">
-        <v>8167</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="7588" spans="1:2" x14ac:dyDescent="0.3">
@@ -80796,7 +81020,7 @@
         <v>7741</v>
       </c>
       <c r="B7588" s="1" t="s">
-        <v>8168</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="7589" spans="1:2" x14ac:dyDescent="0.3">
@@ -80804,7 +81028,7 @@
         <v>7742</v>
       </c>
       <c r="B7589" s="1" t="s">
-        <v>8169</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="7590" spans="1:2" x14ac:dyDescent="0.3">
@@ -80812,7 +81036,7 @@
         <v>7743</v>
       </c>
       <c r="B7590" s="1" t="s">
-        <v>8170</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="7591" spans="1:2" x14ac:dyDescent="0.3">
@@ -80820,7 +81044,7 @@
         <v>7744</v>
       </c>
       <c r="B7591" s="1" t="s">
-        <v>8171</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="7592" spans="1:2" x14ac:dyDescent="0.3">
@@ -80828,7 +81052,7 @@
         <v>7745</v>
       </c>
       <c r="B7592" s="1" t="s">
-        <v>8172</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="7593" spans="1:2" x14ac:dyDescent="0.3">
@@ -80836,7 +81060,7 @@
         <v>7746</v>
       </c>
       <c r="B7593" s="1" t="s">
-        <v>8173</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="7594" spans="1:2" x14ac:dyDescent="0.3">
@@ -80844,7 +81068,7 @@
         <v>7747</v>
       </c>
       <c r="B7594" s="1" t="s">
-        <v>8174</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="7595" spans="1:2" x14ac:dyDescent="0.3">
@@ -80852,7 +81076,7 @@
         <v>7748</v>
       </c>
       <c r="B7595" s="1" t="s">
-        <v>8175</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="7596" spans="1:2" x14ac:dyDescent="0.3">
@@ -80860,7 +81084,7 @@
         <v>7749</v>
       </c>
       <c r="B7596" s="1" t="s">
-        <v>8176</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="7597" spans="1:2" x14ac:dyDescent="0.3">
@@ -80868,7 +81092,7 @@
         <v>7750</v>
       </c>
       <c r="B7597" s="1" t="s">
-        <v>8177</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="7598" spans="1:2" x14ac:dyDescent="0.3">
@@ -80876,7 +81100,7 @@
         <v>7751</v>
       </c>
       <c r="B7598" s="1" t="s">
-        <v>8178</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="7599" spans="1:2" x14ac:dyDescent="0.3">
@@ -80884,7 +81108,7 @@
         <v>7752</v>
       </c>
       <c r="B7599" s="1" t="s">
-        <v>8179</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="7600" spans="1:2" x14ac:dyDescent="0.3">
@@ -80892,7 +81116,7 @@
         <v>7753</v>
       </c>
       <c r="B7600" s="1" t="s">
-        <v>8180</v>
+        <v>8176</v>
       </c>
     </row>
     <row r="7601" spans="1:2" x14ac:dyDescent="0.3">
@@ -80900,7 +81124,7 @@
         <v>7754</v>
       </c>
       <c r="B7601" s="1" t="s">
-        <v>8181</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="7602" spans="1:2" x14ac:dyDescent="0.3">
@@ -80908,7 +81132,7 @@
         <v>7755</v>
       </c>
       <c r="B7602" s="1" t="s">
-        <v>8182</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="7603" spans="1:2" x14ac:dyDescent="0.3">
@@ -80916,7 +81140,7 @@
         <v>7756</v>
       </c>
       <c r="B7603" s="1" t="s">
-        <v>8183</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="7604" spans="1:2" x14ac:dyDescent="0.3">
@@ -80924,7 +81148,7 @@
         <v>7757</v>
       </c>
       <c r="B7604" s="1" t="s">
-        <v>8184</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="7605" spans="1:2" x14ac:dyDescent="0.3">
@@ -80932,7 +81156,7 @@
         <v>7758</v>
       </c>
       <c r="B7605" s="1" t="s">
-        <v>8185</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="7606" spans="1:2" x14ac:dyDescent="0.3">
@@ -80940,7 +81164,7 @@
         <v>7759</v>
       </c>
       <c r="B7606" s="1" t="s">
-        <v>8186</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="7607" spans="1:2" x14ac:dyDescent="0.3">
@@ -80948,7 +81172,7 @@
         <v>7760</v>
       </c>
       <c r="B7607" s="1" t="s">
-        <v>8187</v>
+        <v>8183</v>
       </c>
     </row>
     <row r="7608" spans="1:2" x14ac:dyDescent="0.3">
@@ -80956,7 +81180,7 @@
         <v>7761</v>
       </c>
       <c r="B7608" s="1" t="s">
-        <v>8188</v>
+        <v>8184</v>
       </c>
     </row>
     <row r="7609" spans="1:2" x14ac:dyDescent="0.3">
@@ -80964,7 +81188,7 @@
         <v>7762</v>
       </c>
       <c r="B7609" s="1" t="s">
-        <v>8189</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="7610" spans="1:2" x14ac:dyDescent="0.3">
@@ -80972,7 +81196,7 @@
         <v>7763</v>
       </c>
       <c r="B7610" s="1" t="s">
-        <v>8190</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="7611" spans="1:2" x14ac:dyDescent="0.3">
@@ -80980,7 +81204,7 @@
         <v>7764</v>
       </c>
       <c r="B7611" s="1" t="s">
-        <v>8191</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="7612" spans="1:2" x14ac:dyDescent="0.3">
@@ -80988,7 +81212,7 @@
         <v>7765</v>
       </c>
       <c r="B7612" s="1" t="s">
-        <v>8192</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="7613" spans="1:2" x14ac:dyDescent="0.3">
@@ -80996,7 +81220,7 @@
         <v>7766</v>
       </c>
       <c r="B7613" s="1" t="s">
-        <v>8193</v>
+        <v>8189</v>
       </c>
     </row>
     <row r="7614" spans="1:2" x14ac:dyDescent="0.3">
@@ -81004,7 +81228,7 @@
         <v>7767</v>
       </c>
       <c r="B7614" s="1" t="s">
-        <v>8194</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="7615" spans="1:2" x14ac:dyDescent="0.3">
@@ -81012,7 +81236,7 @@
         <v>7768</v>
       </c>
       <c r="B7615" s="1" t="s">
-        <v>8195</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="7616" spans="1:2" x14ac:dyDescent="0.3">
@@ -81020,7 +81244,7 @@
         <v>7769</v>
       </c>
       <c r="B7616" s="1" t="s">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7617" spans="1:2" x14ac:dyDescent="0.3">
@@ -81028,7 +81252,7 @@
         <v>7770</v>
       </c>
       <c r="B7617" s="1" t="s">
-        <v>8197</v>
+        <v>8193</v>
       </c>
     </row>
     <row r="7618" spans="1:2" x14ac:dyDescent="0.3">
@@ -81036,7 +81260,7 @@
         <v>7771</v>
       </c>
       <c r="B7618" s="1" t="s">
-        <v>8198</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="7619" spans="1:2" x14ac:dyDescent="0.3">
@@ -81044,7 +81268,7 @@
         <v>7772</v>
       </c>
       <c r="B7619" s="1" t="s">
-        <v>8199</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="7620" spans="1:2" x14ac:dyDescent="0.3">
@@ -81052,7 +81276,7 @@
         <v>7773</v>
       </c>
       <c r="B7620" s="1" t="s">
-        <v>8200</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="7621" spans="1:2" x14ac:dyDescent="0.3">
@@ -81060,7 +81284,7 @@
         <v>7774</v>
       </c>
       <c r="B7621" s="1" t="s">
-        <v>8201</v>
+        <v>8197</v>
       </c>
     </row>
     <row r="7622" spans="1:2" x14ac:dyDescent="0.3">
@@ -81068,7 +81292,7 @@
         <v>7775</v>
       </c>
       <c r="B7622" s="1" t="s">
-        <v>8202</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="7623" spans="1:2" x14ac:dyDescent="0.3">
@@ -81076,7 +81300,7 @@
         <v>7776</v>
       </c>
       <c r="B7623" s="1" t="s">
-        <v>8203</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="7624" spans="1:2" x14ac:dyDescent="0.3">
@@ -81084,7 +81308,7 @@
         <v>7777</v>
       </c>
       <c r="B7624" s="1" t="s">
-        <v>8204</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="7625" spans="1:2" x14ac:dyDescent="0.3">
@@ -81092,7 +81316,7 @@
         <v>7778</v>
       </c>
       <c r="B7625" s="1" t="s">
-        <v>8205</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="7626" spans="1:2" x14ac:dyDescent="0.3">
@@ -81100,7 +81324,7 @@
         <v>7779</v>
       </c>
       <c r="B7626" s="1" t="s">
-        <v>8206</v>
+        <v>8202</v>
       </c>
     </row>
     <row r="7627" spans="1:2" x14ac:dyDescent="0.3">
@@ -81108,7 +81332,7 @@
         <v>7780</v>
       </c>
       <c r="B7627" s="1" t="s">
-        <v>8207</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="7628" spans="1:2" x14ac:dyDescent="0.3">
@@ -81116,7 +81340,7 @@
         <v>7781</v>
       </c>
       <c r="B7628" s="1" t="s">
-        <v>8208</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="7629" spans="1:2" x14ac:dyDescent="0.3">
@@ -81124,7 +81348,7 @@
         <v>7782</v>
       </c>
       <c r="B7629" s="1" t="s">
-        <v>8209</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="7630" spans="1:2" x14ac:dyDescent="0.3">
@@ -81132,7 +81356,7 @@
         <v>7783</v>
       </c>
       <c r="B7630" s="1" t="s">
-        <v>8210</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="7631" spans="1:2" x14ac:dyDescent="0.3">
@@ -81140,7 +81364,7 @@
         <v>7784</v>
       </c>
       <c r="B7631" s="1" t="s">
-        <v>8211</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="7632" spans="1:2" x14ac:dyDescent="0.3">
@@ -81148,7 +81372,7 @@
         <v>7785</v>
       </c>
       <c r="B7632" s="1" t="s">
-        <v>8332</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="7633" spans="1:2" x14ac:dyDescent="0.3">
@@ -81156,7 +81380,7 @@
         <v>7786</v>
       </c>
       <c r="B7633" s="1" t="s">
-        <v>8332</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="7634" spans="1:2" x14ac:dyDescent="0.3">
@@ -81164,7 +81388,7 @@
         <v>7787</v>
       </c>
       <c r="B7634" s="1" t="s">
-        <v>8212</v>
+        <v>8208</v>
       </c>
     </row>
     <row r="7635" spans="1:2" x14ac:dyDescent="0.3">
@@ -81172,7 +81396,7 @@
         <v>7788</v>
       </c>
       <c r="B7635" s="1" t="s">
-        <v>8213</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="7636" spans="1:2" x14ac:dyDescent="0.3">
@@ -81180,7 +81404,7 @@
         <v>7789</v>
       </c>
       <c r="B7636" s="1" t="s">
-        <v>8214</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="7637" spans="1:2" x14ac:dyDescent="0.3">
@@ -81188,7 +81412,7 @@
         <v>7790</v>
       </c>
       <c r="B7637" s="1" t="s">
-        <v>8215</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="7638" spans="1:2" x14ac:dyDescent="0.3">
@@ -81196,7 +81420,7 @@
         <v>7791</v>
       </c>
       <c r="B7638" s="1" t="s">
-        <v>8216</v>
+        <v>8212</v>
       </c>
     </row>
     <row r="7639" spans="1:2" x14ac:dyDescent="0.3">
@@ -81204,7 +81428,7 @@
         <v>7792</v>
       </c>
       <c r="B7639" s="1" t="s">
-        <v>8217</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="7640" spans="1:2" x14ac:dyDescent="0.3">
@@ -81212,7 +81436,7 @@
         <v>7793</v>
       </c>
       <c r="B7640" s="1" t="s">
-        <v>8218</v>
+        <v>8214</v>
       </c>
     </row>
     <row r="7641" spans="1:2" x14ac:dyDescent="0.3">
@@ -81220,7 +81444,7 @@
         <v>7794</v>
       </c>
       <c r="B7641" s="1" t="s">
-        <v>8219</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="7642" spans="1:2" x14ac:dyDescent="0.3">
@@ -81228,7 +81452,7 @@
         <v>7795</v>
       </c>
       <c r="B7642" s="1" t="s">
-        <v>8220</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="7643" spans="1:2" x14ac:dyDescent="0.3">
@@ -81236,7 +81460,7 @@
         <v>7796</v>
       </c>
       <c r="B7643" s="1" t="s">
-        <v>8221</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="7644" spans="1:2" x14ac:dyDescent="0.3">
@@ -81244,7 +81468,7 @@
         <v>7797</v>
       </c>
       <c r="B7644" s="1" t="s">
-        <v>8222</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="7645" spans="1:2" x14ac:dyDescent="0.3">
@@ -81252,7 +81476,7 @@
         <v>7798</v>
       </c>
       <c r="B7645" s="1" t="s">
-        <v>8223</v>
+        <v>8219</v>
       </c>
     </row>
     <row r="7646" spans="1:2" x14ac:dyDescent="0.3">
@@ -81260,7 +81484,7 @@
         <v>7799</v>
       </c>
       <c r="B7646" s="1" t="s">
-        <v>8224</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="7647" spans="1:2" x14ac:dyDescent="0.3">
@@ -81268,7 +81492,7 @@
         <v>7800</v>
       </c>
       <c r="B7647" s="1" t="s">
-        <v>8225</v>
+        <v>8221</v>
       </c>
     </row>
     <row r="7648" spans="1:2" x14ac:dyDescent="0.3">
@@ -81276,7 +81500,7 @@
         <v>7801</v>
       </c>
       <c r="B7648" s="1" t="s">
-        <v>8226</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="7649" spans="1:2" x14ac:dyDescent="0.3">
@@ -81284,7 +81508,7 @@
         <v>7802</v>
       </c>
       <c r="B7649" s="1" t="s">
-        <v>8227</v>
+        <v>8223</v>
       </c>
     </row>
     <row r="7650" spans="1:2" x14ac:dyDescent="0.3">
@@ -81292,7 +81516,7 @@
         <v>7803</v>
       </c>
       <c r="B7650" s="1" t="s">
-        <v>8228</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="7651" spans="1:2" x14ac:dyDescent="0.3">
@@ -81300,7 +81524,7 @@
         <v>7804</v>
       </c>
       <c r="B7651" s="1" t="s">
-        <v>8229</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="7652" spans="1:2" x14ac:dyDescent="0.3">
@@ -81308,7 +81532,7 @@
         <v>7805</v>
       </c>
       <c r="B7652" s="1" t="s">
-        <v>8230</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="7653" spans="1:2" x14ac:dyDescent="0.3">
@@ -81316,7 +81540,7 @@
         <v>7806</v>
       </c>
       <c r="B7653" s="1" t="s">
-        <v>8231</v>
+        <v>8227</v>
       </c>
     </row>
     <row r="7654" spans="1:2" x14ac:dyDescent="0.3">
@@ -81324,7 +81548,7 @@
         <v>7807</v>
       </c>
       <c r="B7654" s="1" t="s">
-        <v>8232</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="7655" spans="1:2" x14ac:dyDescent="0.3">
@@ -81332,7 +81556,7 @@
         <v>7808</v>
       </c>
       <c r="B7655" s="1" t="s">
-        <v>8233</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="7656" spans="1:2" x14ac:dyDescent="0.3">
@@ -81340,7 +81564,7 @@
         <v>7809</v>
       </c>
       <c r="B7656" s="1" t="s">
-        <v>8234</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="7657" spans="1:2" x14ac:dyDescent="0.3">
@@ -81348,7 +81572,7 @@
         <v>7810</v>
       </c>
       <c r="B7657" s="1" t="s">
-        <v>8235</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="7658" spans="1:2" x14ac:dyDescent="0.3">
@@ -81356,7 +81580,7 @@
         <v>7811</v>
       </c>
       <c r="B7658" s="1" t="s">
-        <v>8236</v>
+        <v>8232</v>
       </c>
     </row>
     <row r="7659" spans="1:2" x14ac:dyDescent="0.3">
@@ -81364,7 +81588,7 @@
         <v>7812</v>
       </c>
       <c r="B7659" s="1" t="s">
-        <v>8237</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="7660" spans="1:2" x14ac:dyDescent="0.3">
@@ -81377,7 +81601,7 @@
         <v>7814</v>
       </c>
       <c r="B7661" s="1" t="s">
-        <v>8238</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="7662" spans="1:2" x14ac:dyDescent="0.3">
@@ -81385,7 +81609,7 @@
         <v>7815</v>
       </c>
       <c r="B7662" s="1" t="s">
-        <v>8239</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="7663" spans="1:2" x14ac:dyDescent="0.3">
@@ -81393,7 +81617,7 @@
         <v>7816</v>
       </c>
       <c r="B7663" s="1" t="s">
-        <v>8240</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="7664" spans="1:2" x14ac:dyDescent="0.3">
@@ -81401,7 +81625,7 @@
         <v>7817</v>
       </c>
       <c r="B7664" s="1" t="s">
-        <v>8241</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="7665" spans="1:2" x14ac:dyDescent="0.3">
@@ -81409,7 +81633,7 @@
         <v>7818</v>
       </c>
       <c r="B7665" s="1" t="s">
-        <v>8242</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="7666" spans="1:2" x14ac:dyDescent="0.3">
@@ -81417,7 +81641,7 @@
         <v>7819</v>
       </c>
       <c r="B7666" s="1" t="s">
-        <v>8243</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="7667" spans="1:2" x14ac:dyDescent="0.3">
@@ -81425,7 +81649,7 @@
         <v>7820</v>
       </c>
       <c r="B7667" s="1" t="s">
-        <v>8244</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="7668" spans="1:2" x14ac:dyDescent="0.3">
@@ -81433,7 +81657,7 @@
         <v>7821</v>
       </c>
       <c r="B7668" s="1" t="s">
-        <v>8245</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="7669" spans="1:2" x14ac:dyDescent="0.3">
@@ -81441,7 +81665,7 @@
         <v>7822</v>
       </c>
       <c r="B7669" s="1" t="s">
-        <v>8246</v>
+        <v>8242</v>
       </c>
     </row>
     <row r="7670" spans="1:2" x14ac:dyDescent="0.3">
@@ -81449,7 +81673,7 @@
         <v>7823</v>
       </c>
       <c r="B7670" s="1" t="s">
-        <v>8247</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="7671" spans="1:2" x14ac:dyDescent="0.3">
@@ -81457,7 +81681,7 @@
         <v>7824</v>
       </c>
       <c r="B7671" s="1" t="s">
-        <v>8248</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="7672" spans="1:2" x14ac:dyDescent="0.3">
@@ -81465,7 +81689,7 @@
         <v>7825</v>
       </c>
       <c r="B7672" s="1" t="s">
-        <v>8249</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="7673" spans="1:2" x14ac:dyDescent="0.3">
@@ -81473,7 +81697,7 @@
         <v>7826</v>
       </c>
       <c r="B7673" s="1" t="s">
-        <v>8250</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="7674" spans="1:2" x14ac:dyDescent="0.3">
@@ -81481,7 +81705,7 @@
         <v>7827</v>
       </c>
       <c r="B7674" s="1" t="s">
-        <v>8251</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="7675" spans="1:2" x14ac:dyDescent="0.3">
@@ -81489,7 +81713,7 @@
         <v>7828</v>
       </c>
       <c r="B7675" s="1" t="s">
-        <v>8252</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="7676" spans="1:2" x14ac:dyDescent="0.3">
@@ -81497,7 +81721,7 @@
         <v>7829</v>
       </c>
       <c r="B7676" s="1" t="s">
-        <v>8253</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="7677" spans="1:2" x14ac:dyDescent="0.3">
@@ -81505,7 +81729,7 @@
         <v>7830</v>
       </c>
       <c r="B7677" s="1" t="s">
-        <v>8254</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="7678" spans="1:2" x14ac:dyDescent="0.3">
@@ -81513,7 +81737,7 @@
         <v>7831</v>
       </c>
       <c r="B7678" s="1" t="s">
-        <v>8255</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="7679" spans="1:2" x14ac:dyDescent="0.3">
@@ -81521,7 +81745,7 @@
         <v>7832</v>
       </c>
       <c r="B7679" s="1" t="s">
-        <v>8256</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="7680" spans="1:2" x14ac:dyDescent="0.3">
@@ -81529,7 +81753,7 @@
         <v>7833</v>
       </c>
       <c r="B7680" s="1" t="s">
-        <v>8257</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="7681" spans="1:2" x14ac:dyDescent="0.3">
@@ -81537,7 +81761,7 @@
         <v>7834</v>
       </c>
       <c r="B7681" s="1" t="s">
-        <v>8258</v>
+        <v>8254</v>
       </c>
     </row>
     <row r="7682" spans="1:2" x14ac:dyDescent="0.3">
@@ -81545,7 +81769,7 @@
         <v>7835</v>
       </c>
       <c r="B7682" s="1" t="s">
-        <v>8259</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="7683" spans="1:2" x14ac:dyDescent="0.3">
@@ -81553,7 +81777,7 @@
         <v>7836</v>
       </c>
       <c r="B7683" s="1" t="s">
-        <v>8260</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="7684" spans="1:2" x14ac:dyDescent="0.3">
@@ -81561,7 +81785,7 @@
         <v>7837</v>
       </c>
       <c r="B7684" s="1" t="s">
-        <v>8261</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="7685" spans="1:2" x14ac:dyDescent="0.3">
@@ -81569,7 +81793,7 @@
         <v>7838</v>
       </c>
       <c r="B7685" s="1" t="s">
-        <v>8262</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="7686" spans="1:2" x14ac:dyDescent="0.3">
@@ -81577,7 +81801,7 @@
         <v>7839</v>
       </c>
       <c r="B7686" s="1" t="s">
-        <v>8263</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="7687" spans="1:2" x14ac:dyDescent="0.3">
@@ -81585,7 +81809,7 @@
         <v>7840</v>
       </c>
       <c r="B7687" s="1" t="s">
-        <v>8264</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="7688" spans="1:2" x14ac:dyDescent="0.3">
@@ -81593,7 +81817,7 @@
         <v>7841</v>
       </c>
       <c r="B7688" s="1" t="s">
-        <v>8265</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="7689" spans="1:2" x14ac:dyDescent="0.3">
@@ -81601,7 +81825,7 @@
         <v>7842</v>
       </c>
       <c r="B7689" s="1" t="s">
-        <v>8266</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="7690" spans="1:2" x14ac:dyDescent="0.3">
@@ -81609,7 +81833,7 @@
         <v>7843</v>
       </c>
       <c r="B7690" s="1" t="s">
-        <v>8267</v>
+        <v>8263</v>
       </c>
     </row>
     <row r="7691" spans="1:2" x14ac:dyDescent="0.3">
@@ -81617,7 +81841,7 @@
         <v>7844</v>
       </c>
       <c r="B7691" s="1" t="s">
-        <v>8268</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="7692" spans="1:2" x14ac:dyDescent="0.3">
@@ -81625,7 +81849,7 @@
         <v>7845</v>
       </c>
       <c r="B7692" s="1" t="s">
-        <v>8269</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="7693" spans="1:2" x14ac:dyDescent="0.3">
@@ -81633,7 +81857,7 @@
         <v>7846</v>
       </c>
       <c r="B7693" s="1" t="s">
-        <v>8270</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="7694" spans="1:2" x14ac:dyDescent="0.3">
@@ -81641,7 +81865,7 @@
         <v>7847</v>
       </c>
       <c r="B7694" s="1" t="s">
-        <v>8271</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="7695" spans="1:2" x14ac:dyDescent="0.3">
@@ -81649,7 +81873,7 @@
         <v>7848</v>
       </c>
       <c r="B7695" s="1" t="s">
-        <v>8272</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="7696" spans="1:2" x14ac:dyDescent="0.3">
@@ -81657,7 +81881,7 @@
         <v>7849</v>
       </c>
       <c r="B7696" s="1" t="s">
-        <v>8273</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="7697" spans="1:2" x14ac:dyDescent="0.3">
@@ -81665,7 +81889,7 @@
         <v>7850</v>
       </c>
       <c r="B7697" s="1" t="s">
-        <v>8274</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="7698" spans="1:2" x14ac:dyDescent="0.3">
@@ -81673,7 +81897,7 @@
         <v>7851</v>
       </c>
       <c r="B7698" s="1" t="s">
-        <v>8275</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="7699" spans="1:2" x14ac:dyDescent="0.3">
@@ -81681,7 +81905,7 @@
         <v>7852</v>
       </c>
       <c r="B7699" s="1" t="s">
-        <v>8276</v>
+        <v>8272</v>
       </c>
     </row>
     <row r="7700" spans="1:2" x14ac:dyDescent="0.3">
@@ -81689,7 +81913,7 @@
         <v>7853</v>
       </c>
       <c r="B7700" s="1" t="s">
-        <v>8277</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="7701" spans="1:2" x14ac:dyDescent="0.3">
@@ -81697,7 +81921,7 @@
         <v>7854</v>
       </c>
       <c r="B7701" s="1" t="s">
-        <v>8278</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="7702" spans="1:2" x14ac:dyDescent="0.3">
@@ -81705,7 +81929,7 @@
         <v>7855</v>
       </c>
       <c r="B7702" s="1" t="s">
-        <v>8279</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="7703" spans="1:2" x14ac:dyDescent="0.3">
@@ -81713,7 +81937,7 @@
         <v>7856</v>
       </c>
       <c r="B7703" s="1" t="s">
-        <v>8280</v>
+        <v>8276</v>
       </c>
     </row>
     <row r="7704" spans="1:2" x14ac:dyDescent="0.3">
@@ -81721,7 +81945,7 @@
         <v>7857</v>
       </c>
       <c r="B7704" s="1" t="s">
-        <v>8281</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="7705" spans="1:2" x14ac:dyDescent="0.3">
@@ -81729,7 +81953,7 @@
         <v>7858</v>
       </c>
       <c r="B7705" s="1" t="s">
-        <v>8282</v>
+        <v>8278</v>
       </c>
     </row>
     <row r="7706" spans="1:2" x14ac:dyDescent="0.3">
@@ -81737,7 +81961,7 @@
         <v>7859</v>
       </c>
       <c r="B7706" s="1" t="s">
-        <v>8283</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="7707" spans="1:2" x14ac:dyDescent="0.3">
@@ -81745,7 +81969,7 @@
         <v>7860</v>
       </c>
       <c r="B7707" s="1" t="s">
-        <v>8284</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="7708" spans="1:2" x14ac:dyDescent="0.3">
@@ -81753,7 +81977,7 @@
         <v>7861</v>
       </c>
       <c r="B7708" s="1" t="s">
-        <v>8285</v>
+        <v>8281</v>
       </c>
     </row>
     <row r="7709" spans="1:2" x14ac:dyDescent="0.3">
@@ -81761,7 +81985,7 @@
         <v>7862</v>
       </c>
       <c r="B7709" s="1" t="s">
-        <v>8286</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="7710" spans="1:2" x14ac:dyDescent="0.3">
@@ -81769,7 +81993,7 @@
         <v>7863</v>
       </c>
       <c r="B7710" s="1" t="s">
-        <v>8287</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="7711" spans="1:2" x14ac:dyDescent="0.3">
@@ -81777,7 +82001,7 @@
         <v>7864</v>
       </c>
       <c r="B7711" s="1" t="s">
-        <v>8288</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="7712" spans="1:2" x14ac:dyDescent="0.3">
@@ -81785,7 +82009,7 @@
         <v>7865</v>
       </c>
       <c r="B7712" s="1" t="s">
-        <v>8289</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="7713" spans="1:2" x14ac:dyDescent="0.3">
@@ -81793,7 +82017,7 @@
         <v>7866</v>
       </c>
       <c r="B7713" s="1" t="s">
-        <v>8290</v>
+        <v>8286</v>
       </c>
     </row>
     <row r="7714" spans="1:2" x14ac:dyDescent="0.3">
@@ -81801,7 +82025,7 @@
         <v>7867</v>
       </c>
       <c r="B7714" s="1" t="s">
-        <v>8291</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="7715" spans="1:2" x14ac:dyDescent="0.3">
@@ -81809,7 +82033,7 @@
         <v>7868</v>
       </c>
       <c r="B7715" s="1" t="s">
-        <v>8292</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="7716" spans="1:2" x14ac:dyDescent="0.3">
@@ -81817,7 +82041,7 @@
         <v>7869</v>
       </c>
       <c r="B7716" s="1" t="s">
-        <v>8293</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="7717" spans="1:2" x14ac:dyDescent="0.3">
@@ -81825,7 +82049,7 @@
         <v>7870</v>
       </c>
       <c r="B7717" s="1" t="s">
-        <v>8294</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="7718" spans="1:2" x14ac:dyDescent="0.3">
@@ -81833,7 +82057,7 @@
         <v>7871</v>
       </c>
       <c r="B7718" s="1" t="s">
-        <v>8295</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="7719" spans="1:2" x14ac:dyDescent="0.3">
@@ -81841,7 +82065,7 @@
         <v>7872</v>
       </c>
       <c r="B7719" s="1" t="s">
-        <v>8296</v>
+        <v>8292</v>
       </c>
     </row>
     <row r="7720" spans="1:2" x14ac:dyDescent="0.3">
@@ -81849,7 +82073,7 @@
         <v>7873</v>
       </c>
       <c r="B7720" s="1" t="s">
-        <v>8297</v>
+        <v>8293</v>
       </c>
     </row>
     <row r="7721" spans="1:2" x14ac:dyDescent="0.3">
@@ -81857,7 +82081,7 @@
         <v>7874</v>
       </c>
       <c r="B7721" s="1" t="s">
-        <v>8298</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="7722" spans="1:2" x14ac:dyDescent="0.3">
@@ -81865,7 +82089,7 @@
         <v>7875</v>
       </c>
       <c r="B7722" s="1" t="s">
-        <v>8299</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="7723" spans="1:2" x14ac:dyDescent="0.3">
@@ -81873,7 +82097,7 @@
         <v>7876</v>
       </c>
       <c r="B7723" s="1" t="s">
-        <v>8300</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="7724" spans="1:2" x14ac:dyDescent="0.3">
@@ -81881,7 +82105,7 @@
         <v>7877</v>
       </c>
       <c r="B7724" s="1" t="s">
-        <v>8301</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="7725" spans="1:2" x14ac:dyDescent="0.3">
@@ -81889,7 +82113,7 @@
         <v>7878</v>
       </c>
       <c r="B7725" s="1" t="s">
-        <v>8302</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="7726" spans="1:2" x14ac:dyDescent="0.3">
@@ -81897,7 +82121,7 @@
         <v>7879</v>
       </c>
       <c r="B7726" s="1" t="s">
-        <v>8303</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="7727" spans="1:2" x14ac:dyDescent="0.3">
@@ -81905,7 +82129,7 @@
         <v>7880</v>
       </c>
       <c r="B7727" s="1" t="s">
-        <v>8304</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="7728" spans="1:2" x14ac:dyDescent="0.3">
@@ -81913,7 +82137,7 @@
         <v>7881</v>
       </c>
       <c r="B7728" s="1" t="s">
-        <v>8305</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="7729" spans="1:2" x14ac:dyDescent="0.3">
@@ -81921,7 +82145,7 @@
         <v>7882</v>
       </c>
       <c r="B7729" s="1" t="s">
-        <v>8306</v>
+        <v>8302</v>
       </c>
     </row>
     <row r="7730" spans="1:2" x14ac:dyDescent="0.3">
@@ -81929,7 +82153,7 @@
         <v>7883</v>
       </c>
       <c r="B7730" s="1" t="s">
-        <v>8307</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="7731" spans="1:2" x14ac:dyDescent="0.3">
@@ -81937,7 +82161,7 @@
         <v>7884</v>
       </c>
       <c r="B7731" s="1" t="s">
-        <v>8308</v>
+        <v>8304</v>
       </c>
     </row>
     <row r="7732" spans="1:2" x14ac:dyDescent="0.3">
@@ -81945,7 +82169,7 @@
         <v>7885</v>
       </c>
       <c r="B7732" s="1" t="s">
-        <v>8309</v>
+        <v>8305</v>
       </c>
     </row>
     <row r="7733" spans="1:2" x14ac:dyDescent="0.3">
@@ -81953,7 +82177,7 @@
         <v>7886</v>
       </c>
       <c r="B7733" s="1" t="s">
-        <v>8310</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="7734" spans="1:2" x14ac:dyDescent="0.3">
@@ -81961,7 +82185,7 @@
         <v>7887</v>
       </c>
       <c r="B7734" s="1" t="s">
-        <v>8311</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="7735" spans="1:2" x14ac:dyDescent="0.3">
@@ -81969,7 +82193,7 @@
         <v>7888</v>
       </c>
       <c r="B7735" s="1" t="s">
-        <v>8312</v>
+        <v>8308</v>
       </c>
     </row>
     <row r="7736" spans="1:2" x14ac:dyDescent="0.3">
@@ -81977,7 +82201,7 @@
         <v>7889</v>
       </c>
       <c r="B7736" s="1" t="s">
-        <v>8313</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="7737" spans="1:2" x14ac:dyDescent="0.3">
@@ -81985,7 +82209,7 @@
         <v>7890</v>
       </c>
       <c r="B7737" s="1" t="s">
-        <v>8314</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="7738" spans="1:2" x14ac:dyDescent="0.3">
@@ -81993,7 +82217,7 @@
         <v>7891</v>
       </c>
       <c r="B7738" s="1" t="s">
-        <v>8315</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="7739" spans="1:2" x14ac:dyDescent="0.3">
@@ -82001,7 +82225,7 @@
         <v>7892</v>
       </c>
       <c r="B7739" s="1" t="s">
-        <v>8316</v>
+        <v>8312</v>
       </c>
     </row>
     <row r="7740" spans="1:2" x14ac:dyDescent="0.3">
@@ -82009,7 +82233,7 @@
         <v>7893</v>
       </c>
       <c r="B7740" s="1" t="s">
-        <v>8317</v>
+        <v>8313</v>
       </c>
     </row>
     <row r="7741" spans="1:2" x14ac:dyDescent="0.3">
@@ -82017,7 +82241,7 @@
         <v>7894</v>
       </c>
       <c r="B7741" s="1" t="s">
-        <v>8318</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="7742" spans="1:2" x14ac:dyDescent="0.3">
@@ -82025,7 +82249,7 @@
         <v>7895</v>
       </c>
       <c r="B7742" s="1" t="s">
-        <v>8319</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="7743" spans="1:2" x14ac:dyDescent="0.3">
@@ -82033,7 +82257,7 @@
         <v>7896</v>
       </c>
       <c r="B7743" s="1" t="s">
-        <v>8320</v>
+        <v>8316</v>
       </c>
     </row>
     <row r="7744" spans="1:2" x14ac:dyDescent="0.3">
@@ -82041,7 +82265,7 @@
         <v>7897</v>
       </c>
       <c r="B7744" s="1" t="s">
-        <v>8321</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="7745" spans="1:2" x14ac:dyDescent="0.3">
@@ -82049,7 +82273,7 @@
         <v>7898</v>
       </c>
       <c r="B7745" s="1" t="s">
-        <v>8322</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="7746" spans="1:2" x14ac:dyDescent="0.3">
@@ -82057,7 +82281,7 @@
         <v>7899</v>
       </c>
       <c r="B7746" s="1" t="s">
-        <v>8323</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="7747" spans="1:2" x14ac:dyDescent="0.3">
@@ -82065,7 +82289,7 @@
         <v>7900</v>
       </c>
       <c r="B7747" s="1" t="s">
-        <v>8324</v>
+        <v>8320</v>
       </c>
     </row>
     <row r="7748" spans="1:2" x14ac:dyDescent="0.3">
@@ -82073,7 +82297,7 @@
         <v>7901</v>
       </c>
       <c r="B7748" s="1" t="s">
-        <v>8325</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="7749" spans="1:2" x14ac:dyDescent="0.3">
@@ -82081,7 +82305,7 @@
         <v>7902</v>
       </c>
       <c r="B7749" s="1" t="s">
-        <v>8326</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="7750" spans="1:2" x14ac:dyDescent="0.3">
@@ -82089,7 +82313,7 @@
         <v>7903</v>
       </c>
       <c r="B7750" s="1" t="s">
-        <v>8327</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="7751" spans="1:2" x14ac:dyDescent="0.3">
@@ -82097,7 +82321,7 @@
         <v>7904</v>
       </c>
       <c r="B7751" s="1" t="s">
-        <v>8328</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="7752" spans="1:2" x14ac:dyDescent="0.3">
@@ -82105,7 +82329,7 @@
         <v>7905</v>
       </c>
       <c r="B7752" s="1" t="s">
-        <v>8329</v>
+        <v>8325</v>
       </c>
     </row>
     <row r="7753" spans="1:2" x14ac:dyDescent="0.3">
@@ -82113,7 +82337,7 @@
         <v>7906</v>
       </c>
       <c r="B7753" s="1" t="s">
-        <v>8330</v>
+        <v>8326</v>
       </c>
     </row>
     <row r="7754" spans="1:2" x14ac:dyDescent="0.3">
@@ -82121,7 +82345,7 @@
         <v>7907</v>
       </c>
       <c r="B7754" s="1" t="s">
-        <v>8331</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="7755" spans="1:2" x14ac:dyDescent="0.3">
@@ -82129,7 +82353,7 @@
         <v>7908</v>
       </c>
       <c r="B7755" s="1" t="s">
-        <v>8332</v>
+        <v>8328</v>
       </c>
     </row>
     <row r="7756" spans="1:2" x14ac:dyDescent="0.3">
@@ -82137,7 +82361,7 @@
         <v>7909</v>
       </c>
       <c r="B7756" s="1" t="s">
-        <v>8333</v>
+        <v>8329</v>
       </c>
     </row>
     <row r="7757" spans="1:2" x14ac:dyDescent="0.3">
@@ -82145,7 +82369,7 @@
         <v>7910</v>
       </c>
       <c r="B7757" s="1" t="s">
-        <v>8334</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="7758" spans="1:2" x14ac:dyDescent="0.3">
@@ -82153,7 +82377,7 @@
         <v>7911</v>
       </c>
       <c r="B7758" s="1" t="s">
-        <v>8335</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="7759" spans="1:2" x14ac:dyDescent="0.3">
@@ -82161,7 +82385,7 @@
         <v>7912</v>
       </c>
       <c r="B7759" s="1" t="s">
-        <v>8336</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="7760" spans="1:2" x14ac:dyDescent="0.3">
@@ -82169,7 +82393,7 @@
         <v>7913</v>
       </c>
       <c r="B7760" s="1" t="s">
-        <v>8337</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="7761" spans="1:2" x14ac:dyDescent="0.3">
@@ -82177,7 +82401,7 @@
         <v>7914</v>
       </c>
       <c r="B7761" s="1" t="s">
-        <v>8338</v>
+        <v>8334</v>
       </c>
     </row>
     <row r="7762" spans="1:2" x14ac:dyDescent="0.3">
@@ -82185,7 +82409,7 @@
         <v>7915</v>
       </c>
       <c r="B7762" s="1" t="s">
-        <v>8339</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="7763" spans="1:2" x14ac:dyDescent="0.3">
@@ -82193,7 +82417,7 @@
         <v>7916</v>
       </c>
       <c r="B7763" s="1" t="s">
-        <v>8340</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="7764" spans="1:2" x14ac:dyDescent="0.3">
@@ -82201,7 +82425,7 @@
         <v>7917</v>
       </c>
       <c r="B7764" s="1" t="s">
-        <v>8341</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="7765" spans="1:2" x14ac:dyDescent="0.3">
@@ -82209,7 +82433,7 @@
         <v>7918</v>
       </c>
       <c r="B7765" s="1" t="s">
-        <v>8342</v>
+        <v>8338</v>
       </c>
     </row>
     <row r="7766" spans="1:2" x14ac:dyDescent="0.3">
@@ -82217,7 +82441,7 @@
         <v>7919</v>
       </c>
       <c r="B7766" s="1" t="s">
-        <v>8343</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="7767" spans="1:2" x14ac:dyDescent="0.3">
@@ -82225,7 +82449,7 @@
         <v>7920</v>
       </c>
       <c r="B7767" s="1" t="s">
-        <v>8344</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="7768" spans="1:2" x14ac:dyDescent="0.3">
@@ -82233,7 +82457,7 @@
         <v>7921</v>
       </c>
       <c r="B7768" s="1" t="s">
-        <v>8345</v>
+        <v>8341</v>
       </c>
     </row>
     <row r="7769" spans="1:2" x14ac:dyDescent="0.3">
@@ -82241,7 +82465,7 @@
         <v>7922</v>
       </c>
       <c r="B7769" s="1" t="s">
-        <v>8346</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="7770" spans="1:2" x14ac:dyDescent="0.3">
@@ -82249,7 +82473,7 @@
         <v>7923</v>
       </c>
       <c r="B7770" s="1" t="s">
-        <v>8347</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="7771" spans="1:2" x14ac:dyDescent="0.3">
@@ -82257,7 +82481,7 @@
         <v>7924</v>
       </c>
       <c r="B7771" s="1" t="s">
-        <v>8348</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="7772" spans="1:2" x14ac:dyDescent="0.3">
@@ -82265,7 +82489,7 @@
         <v>7925</v>
       </c>
       <c r="B7772" s="1" t="s">
-        <v>8349</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="7773" spans="1:2" x14ac:dyDescent="0.3">
@@ -82273,7 +82497,7 @@
         <v>7926</v>
       </c>
       <c r="B7773" s="1" t="s">
-        <v>8350</v>
+        <v>8346</v>
       </c>
     </row>
     <row r="7774" spans="1:2" x14ac:dyDescent="0.3">
@@ -82281,7 +82505,7 @@
         <v>7927</v>
       </c>
       <c r="B7774" s="1" t="s">
-        <v>8351</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="7775" spans="1:2" x14ac:dyDescent="0.3">
@@ -82289,7 +82513,7 @@
         <v>7928</v>
       </c>
       <c r="B7775" s="1" t="s">
-        <v>8352</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="7776" spans="1:2" x14ac:dyDescent="0.3">
@@ -82297,7 +82521,7 @@
         <v>7929</v>
       </c>
       <c r="B7776" s="1" t="s">
-        <v>8353</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="7777" spans="1:2" x14ac:dyDescent="0.3">
@@ -82305,7 +82529,7 @@
         <v>7930</v>
       </c>
       <c r="B7777" s="1" t="s">
-        <v>8354</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="7778" spans="1:2" x14ac:dyDescent="0.3">
@@ -82313,7 +82537,7 @@
         <v>7931</v>
       </c>
       <c r="B7778" s="1" t="s">
-        <v>8355</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="7779" spans="1:2" x14ac:dyDescent="0.3">
@@ -82321,7 +82545,7 @@
         <v>7932</v>
       </c>
       <c r="B7779" s="1" t="s">
-        <v>8356</v>
+        <v>8352</v>
       </c>
     </row>
     <row r="7780" spans="1:2" x14ac:dyDescent="0.3">
@@ -82329,7 +82553,7 @@
         <v>7933</v>
       </c>
       <c r="B7780" s="1" t="s">
-        <v>8357</v>
+        <v>8353</v>
       </c>
     </row>
     <row r="7781" spans="1:2" x14ac:dyDescent="0.3">
@@ -82337,7 +82561,7 @@
         <v>7934</v>
       </c>
       <c r="B7781" s="1" t="s">
-        <v>8358</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="7782" spans="1:2" x14ac:dyDescent="0.3">
@@ -82345,7 +82569,7 @@
         <v>7935</v>
       </c>
       <c r="B7782" s="1" t="s">
-        <v>8359</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="7783" spans="1:2" x14ac:dyDescent="0.3">
@@ -82353,7 +82577,7 @@
         <v>7936</v>
       </c>
       <c r="B7783" s="1" t="s">
-        <v>8360</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="7784" spans="1:2" x14ac:dyDescent="0.3">
@@ -82361,7 +82585,7 @@
         <v>7937</v>
       </c>
       <c r="B7784" s="1" t="s">
-        <v>8361</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="7785" spans="1:2" x14ac:dyDescent="0.3">
@@ -82369,7 +82593,7 @@
         <v>7938</v>
       </c>
       <c r="B7785" s="1" t="s">
-        <v>8362</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="7786" spans="1:2" x14ac:dyDescent="0.3">
@@ -82377,7 +82601,7 @@
         <v>7939</v>
       </c>
       <c r="B7786" s="1" t="s">
-        <v>8363</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="7787" spans="1:2" x14ac:dyDescent="0.3">
@@ -82385,7 +82609,7 @@
         <v>7940</v>
       </c>
       <c r="B7787" s="1" t="s">
-        <v>8364</v>
+        <v>8360</v>
       </c>
     </row>
     <row r="7788" spans="1:2" x14ac:dyDescent="0.3">
@@ -82393,7 +82617,7 @@
         <v>7941</v>
       </c>
       <c r="B7788" s="1" t="s">
-        <v>8365</v>
+        <v>8361</v>
       </c>
     </row>
     <row r="7789" spans="1:2" x14ac:dyDescent="0.3">
@@ -82401,7 +82625,7 @@
         <v>7942</v>
       </c>
       <c r="B7789" s="1" t="s">
-        <v>8366</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="7790" spans="1:2" x14ac:dyDescent="0.3">
@@ -82409,7 +82633,7 @@
         <v>7943</v>
       </c>
       <c r="B7790" s="1" t="s">
-        <v>8367</v>
+        <v>8363</v>
       </c>
     </row>
     <row r="7791" spans="1:2" x14ac:dyDescent="0.3">
@@ -82417,7 +82641,7 @@
         <v>7944</v>
       </c>
       <c r="B7791" s="1" t="s">
-        <v>8368</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="7792" spans="1:2" x14ac:dyDescent="0.3">
@@ -82425,7 +82649,7 @@
         <v>7945</v>
       </c>
       <c r="B7792" s="1" t="s">
-        <v>8369</v>
+        <v>8365</v>
       </c>
     </row>
     <row r="7793" spans="1:2" x14ac:dyDescent="0.3">
@@ -82433,7 +82657,7 @@
         <v>7946</v>
       </c>
       <c r="B7793" s="1" t="s">
-        <v>8370</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="7794" spans="1:2" x14ac:dyDescent="0.3">
@@ -82441,7 +82665,7 @@
         <v>7947</v>
       </c>
       <c r="B7794" s="1" t="s">
-        <v>8371</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="7795" spans="1:2" x14ac:dyDescent="0.3">
@@ -82449,7 +82673,7 @@
         <v>7948</v>
       </c>
       <c r="B7795" s="1" t="s">
-        <v>8372</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="7796" spans="1:2" x14ac:dyDescent="0.3">
@@ -82457,7 +82681,7 @@
         <v>7949</v>
       </c>
       <c r="B7796" s="1" t="s">
-        <v>8373</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="7797" spans="1:2" x14ac:dyDescent="0.3">
@@ -82465,7 +82689,7 @@
         <v>7950</v>
       </c>
       <c r="B7797" s="1" t="s">
-        <v>8374</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="7798" spans="1:2" x14ac:dyDescent="0.3">
@@ -82473,7 +82697,7 @@
         <v>7951</v>
       </c>
       <c r="B7798" s="1" t="s">
-        <v>8375</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="7799" spans="1:2" x14ac:dyDescent="0.3">
@@ -82481,7 +82705,7 @@
         <v>7952</v>
       </c>
       <c r="B7799" s="1" t="s">
-        <v>8376</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="7800" spans="1:2" x14ac:dyDescent="0.3">
@@ -82489,7 +82713,7 @@
         <v>7953</v>
       </c>
       <c r="B7800" s="1" t="s">
-        <v>8377</v>
+        <v>8373</v>
       </c>
     </row>
     <row r="7801" spans="1:2" x14ac:dyDescent="0.3">
@@ -82497,7 +82721,7 @@
         <v>7954</v>
       </c>
       <c r="B7801" s="1" t="s">
-        <v>8378</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="7802" spans="1:2" x14ac:dyDescent="0.3">
@@ -82505,7 +82729,7 @@
         <v>7955</v>
       </c>
       <c r="B7802" s="1" t="s">
-        <v>8379</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="7803" spans="1:2" x14ac:dyDescent="0.3">
@@ -82513,7 +82737,7 @@
         <v>7956</v>
       </c>
       <c r="B7803" s="1" t="s">
-        <v>8380</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="7804" spans="1:2" x14ac:dyDescent="0.3">
@@ -82521,7 +82745,7 @@
         <v>7957</v>
       </c>
       <c r="B7804" s="1" t="s">
-        <v>8381</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="7805" spans="1:2" x14ac:dyDescent="0.3">
@@ -82529,7 +82753,7 @@
         <v>7958</v>
       </c>
       <c r="B7805" s="1" t="s">
-        <v>8382</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="7806" spans="1:2" x14ac:dyDescent="0.3">
@@ -82537,7 +82761,7 @@
         <v>7959</v>
       </c>
       <c r="B7806" s="1" t="s">
-        <v>8383</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="7807" spans="1:2" x14ac:dyDescent="0.3">
@@ -82545,7 +82769,7 @@
         <v>7960</v>
       </c>
       <c r="B7807" s="1" t="s">
-        <v>8384</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="7808" spans="1:2" x14ac:dyDescent="0.3">
@@ -82553,7 +82777,7 @@
         <v>7961</v>
       </c>
       <c r="B7808" s="1" t="s">
-        <v>8385</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="7809" spans="1:2" x14ac:dyDescent="0.3">
@@ -82561,7 +82785,7 @@
         <v>7962</v>
       </c>
       <c r="B7809" s="1" t="s">
-        <v>8386</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="7810" spans="1:2" x14ac:dyDescent="0.3">
@@ -82569,7 +82793,7 @@
         <v>7963</v>
       </c>
       <c r="B7810" s="1" t="s">
-        <v>8387</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="7811" spans="1:2" x14ac:dyDescent="0.3">
@@ -82577,7 +82801,7 @@
         <v>7964</v>
       </c>
       <c r="B7811" s="1" t="s">
-        <v>8388</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="7812" spans="1:2" x14ac:dyDescent="0.3">
@@ -82585,7 +82809,7 @@
         <v>7965</v>
       </c>
       <c r="B7812" s="1" t="s">
-        <v>8389</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="7813" spans="1:2" x14ac:dyDescent="0.3">
@@ -82593,7 +82817,7 @@
         <v>7966</v>
       </c>
       <c r="B7813" s="1" t="s">
-        <v>8390</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="7814" spans="1:2" x14ac:dyDescent="0.3">
@@ -82601,7 +82825,7 @@
         <v>7967</v>
       </c>
       <c r="B7814" s="1" t="s">
-        <v>8391</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="7815" spans="1:2" x14ac:dyDescent="0.3">
@@ -82609,7 +82833,7 @@
         <v>7968</v>
       </c>
       <c r="B7815" s="1" t="s">
-        <v>8392</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="7816" spans="1:2" x14ac:dyDescent="0.3">
@@ -82617,7 +82841,7 @@
         <v>7969</v>
       </c>
       <c r="B7816" s="1" t="s">
-        <v>8393</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="7817" spans="1:2" x14ac:dyDescent="0.3">
@@ -82625,7 +82849,7 @@
         <v>7970</v>
       </c>
       <c r="B7817" s="1" t="s">
-        <v>8394</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="7818" spans="1:2" x14ac:dyDescent="0.3">
@@ -82633,7 +82857,7 @@
         <v>7971</v>
       </c>
       <c r="B7818" s="1" t="s">
-        <v>8395</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="7819" spans="1:2" x14ac:dyDescent="0.3">
@@ -82641,7 +82865,7 @@
         <v>7972</v>
       </c>
       <c r="B7819" s="1" t="s">
-        <v>8396</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="7820" spans="1:2" x14ac:dyDescent="0.3">
@@ -83945,7 +84169,7 @@
         <v>5846</v>
       </c>
       <c r="B8003" s="1" t="s">
-        <v>8129</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="8004" spans="1:2" x14ac:dyDescent="0.3">
@@ -84055,9 +84279,562 @@
         <v>8027</v>
       </c>
     </row>
+    <row r="8023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8023" s="1" t="s">
+        <v>8395</v>
+      </c>
+      <c r="B8023" s="1" t="s">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="8024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8024" s="1" t="s">
+        <v>8396</v>
+      </c>
+      <c r="B8024" s="1" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="8025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8025" s="1" t="s">
+        <v>8397</v>
+      </c>
+      <c r="B8025" s="1" t="s">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="8026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8026" s="1" t="s">
+        <v>8398</v>
+      </c>
+      <c r="B8026" s="1" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="8027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8027" s="1" t="s">
+        <v>8399</v>
+      </c>
+      <c r="B8027" s="1" t="s">
+        <v>8399</v>
+      </c>
+    </row>
+    <row r="8028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8028" s="1" t="s">
+        <v>8400</v>
+      </c>
+      <c r="B8028" s="1" t="s">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="8029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8029" s="1" t="s">
+        <v>8401</v>
+      </c>
+      <c r="B8029" s="1" t="s">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="8030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8030" s="1" t="s">
+        <v>8402</v>
+      </c>
+      <c r="B8030" s="1" t="s">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="8031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8031" s="1" t="s">
+        <v>8403</v>
+      </c>
+      <c r="B8031" s="1" t="s">
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="8032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8032" s="1" t="s">
+        <v>8404</v>
+      </c>
+      <c r="B8032" s="1" t="s">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="8033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8033" s="1" t="s">
+        <v>8405</v>
+      </c>
+      <c r="B8033" s="1" t="s">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="8034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8034" s="1" t="s">
+        <v>8406</v>
+      </c>
+      <c r="B8034" s="1" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="8035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8035" s="1" t="s">
+        <v>8407</v>
+      </c>
+      <c r="B8035" s="1" t="s">
+        <v>8407</v>
+      </c>
+    </row>
+    <row r="8036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8036" s="1" t="s">
+        <v>8408</v>
+      </c>
+      <c r="B8036" s="1" t="s">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="8037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8037" s="1" t="s">
+        <v>8409</v>
+      </c>
+      <c r="B8037" s="1" t="s">
+        <v>8409</v>
+      </c>
+    </row>
+    <row r="8038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8038" s="1" t="s">
+        <v>8410</v>
+      </c>
+      <c r="B8038" s="1" t="s">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="8039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8039" s="1" t="s">
+        <v>8411</v>
+      </c>
+      <c r="B8039" s="1" t="s">
+        <v>8411</v>
+      </c>
+    </row>
+    <row r="8040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8040" s="1" t="s">
+        <v>8412</v>
+      </c>
+      <c r="B8040" s="1" t="s">
+        <v>8412</v>
+      </c>
+    </row>
+    <row r="8041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8041" s="1" t="s">
+        <v>8413</v>
+      </c>
+      <c r="B8041" s="1" t="s">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="8042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8042" s="1" t="s">
+        <v>8414</v>
+      </c>
+      <c r="B8042" s="1" t="s">
+        <v>8414</v>
+      </c>
+    </row>
+    <row r="8043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8043" s="1" t="s">
+        <v>8415</v>
+      </c>
+      <c r="B8043" s="1" t="s">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="8044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8044" s="1" t="s">
+        <v>8451</v>
+      </c>
+      <c r="B8044" s="1" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="8045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8045" s="1" t="s">
+        <v>8417</v>
+      </c>
+      <c r="B8045" s="1" t="s">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="8046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8046" s="1" t="s">
+        <v>8418</v>
+      </c>
+      <c r="B8046" s="1" t="s">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="8047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8047" s="1" t="s">
+        <v>8419</v>
+      </c>
+      <c r="B8047" s="1" t="s">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="8048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8048" s="1" t="s">
+        <v>8420</v>
+      </c>
+      <c r="B8048" s="1" t="s">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="8049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8049" s="1" t="s">
+        <v>8421</v>
+      </c>
+      <c r="B8049" s="1" t="s">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="8050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8050" s="1" t="s">
+        <v>8422</v>
+      </c>
+      <c r="B8050" s="1" t="s">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="8051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8051" s="1" t="s">
+        <v>8423</v>
+      </c>
+      <c r="B8051" s="1" t="s">
+        <v>8423</v>
+      </c>
+    </row>
+    <row r="8052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8052" s="1" t="s">
+        <v>8424</v>
+      </c>
+      <c r="B8052" s="1" t="s">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="8053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8053" s="1" t="s">
+        <v>8425</v>
+      </c>
+      <c r="B8053" s="1" t="s">
+        <v>8425</v>
+      </c>
+    </row>
+    <row r="8054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8054" s="1" t="s">
+        <v>8426</v>
+      </c>
+      <c r="B8054" s="1" t="s">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="8055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8055" s="1" t="s">
+        <v>8427</v>
+      </c>
+      <c r="B8055" s="1" t="s">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="8056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8056" s="1" t="s">
+        <v>8428</v>
+      </c>
+      <c r="B8056" s="1" t="s">
+        <v>8428</v>
+      </c>
+    </row>
+    <row r="8057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8057" s="1" t="s">
+        <v>8429</v>
+      </c>
+      <c r="B8057" s="1" t="s">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="8058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8058" s="1" t="s">
+        <v>8430</v>
+      </c>
+      <c r="B8058" s="1" t="s">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="8059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8059" s="1" t="s">
+        <v>8431</v>
+      </c>
+      <c r="B8059" s="1" t="s">
+        <v>8431</v>
+      </c>
+    </row>
+    <row r="8060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8060" s="1" t="s">
+        <v>8432</v>
+      </c>
+      <c r="B8060" s="1" t="s">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="8061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8061" s="1" t="s">
+        <v>8433</v>
+      </c>
+      <c r="B8061" s="1" t="s">
+        <v>8433</v>
+      </c>
+    </row>
+    <row r="8062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8062" s="1" t="s">
+        <v>8434</v>
+      </c>
+      <c r="B8062" s="1" t="s">
+        <v>8434</v>
+      </c>
+    </row>
+    <row r="8063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8063" s="1" t="s">
+        <v>8435</v>
+      </c>
+      <c r="B8063" s="1" t="s">
+        <v>8435</v>
+      </c>
+    </row>
+    <row r="8064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8064" s="1" t="s">
+        <v>8436</v>
+      </c>
+      <c r="B8064" s="1" t="s">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="8065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8065" s="1" t="s">
+        <v>8437</v>
+      </c>
+      <c r="B8065" s="1" t="s">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="8066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8066" s="1" t="s">
+        <v>8438</v>
+      </c>
+      <c r="B8066" s="1" t="s">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="8067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8067" s="1" t="s">
+        <v>8439</v>
+      </c>
+      <c r="B8067" s="1" t="s">
+        <v>8439</v>
+      </c>
+    </row>
+    <row r="8068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8068" s="1" t="s">
+        <v>8440</v>
+      </c>
+      <c r="B8068" s="1" t="s">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="8069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8069" s="1" t="s">
+        <v>8441</v>
+      </c>
+      <c r="B8069" s="1" t="s">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="8070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8070" s="1" t="s">
+        <v>8442</v>
+      </c>
+      <c r="B8070" s="1" t="s">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="8071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8071" s="1" t="s">
+        <v>8443</v>
+      </c>
+      <c r="B8071" s="1" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="8072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8072" s="1" t="s">
+        <v>8444</v>
+      </c>
+      <c r="B8072" s="1" t="s">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="8073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8073" s="1" t="s">
+        <v>8445</v>
+      </c>
+      <c r="B8073" s="1" t="s">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="8074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8074" s="1" t="s">
+        <v>8447</v>
+      </c>
+      <c r="B8074" s="1" t="s">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="8075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8075" s="1" t="s">
+        <v>8448</v>
+      </c>
+      <c r="B8075" s="1" t="s">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="8076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8076" s="1" t="s">
+        <v>8452</v>
+      </c>
+      <c r="B8076" s="1" t="s">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="8077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8077" s="1" t="s">
+        <v>8454</v>
+      </c>
+      <c r="B8077" s="1" t="s">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="8078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8078" s="1" t="s">
+        <v>8455</v>
+      </c>
+      <c r="B8078" s="1" t="s">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="8079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8079" s="1" t="s">
+        <v>8456</v>
+      </c>
+      <c r="B8079" s="1" t="s">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="8080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8080" s="1" t="s">
+        <v>8457</v>
+      </c>
+      <c r="B8080" s="1" t="s">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="8081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8081" s="1" t="s">
+        <v>8458</v>
+      </c>
+      <c r="B8081" s="1" t="s">
+        <v>8458</v>
+      </c>
+    </row>
+    <row r="8082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8082" s="1" t="s">
+        <v>8459</v>
+      </c>
+      <c r="B8082" s="1" t="s">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="8083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8083" s="1" t="s">
+        <v>8460</v>
+      </c>
+      <c r="B8083" s="1" t="s">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="8084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8084" s="1" t="s">
+        <v>8461</v>
+      </c>
+      <c r="B8084" s="1" t="s">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="8085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8085" s="1" t="s">
+        <v>8462</v>
+      </c>
+      <c r="B8085" s="1" t="s">
+        <v>8462</v>
+      </c>
+    </row>
+    <row r="8086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8086" s="1" t="s">
+        <v>8463</v>
+      </c>
+      <c r="B8086" s="1" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="8087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8087" s="1" t="s">
+        <v>8464</v>
+      </c>
+      <c r="B8087" s="1" t="s">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="8088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8088" s="1" t="s">
+        <v>8466</v>
+      </c>
+      <c r="B8088" s="1" t="s">
+        <v>8466</v>
+      </c>
+    </row>
+    <row r="8089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8089" s="1" t="s">
+        <v>8467</v>
+      </c>
+      <c r="B8089" s="1" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="8090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8090" s="1" t="s">
+        <v>8468</v>
+      </c>
+      <c r="B8090" s="1" t="s">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="8091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8091" s="1" t="s">
+        <v>8469</v>
+      </c>
+      <c r="B8091" s="1" t="s">
+        <v>8469</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B55413">
-    <sortCondition ref="A2:A55413"/>
+  <autoFilter ref="A1:B8087" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B55412">
+    <sortCondition ref="A2:A55412"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
